--- a/Arquivo_Processado_semO.xlsx
+++ b/Arquivo_Processado_semO.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M736"/>
+  <dimension ref="A1:M737"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -512,7 +512,7 @@
         <v>514.6042784174372</v>
       </c>
       <c r="E3">
-        <v>69.50850006434182</v>
+        <v>560.6183606424307</v>
       </c>
       <c r="F3">
         <v>630.1948668410736</v>
@@ -556,10 +556,10 @@
         <v>378.0066130455303</v>
       </c>
       <c r="F4">
-        <v>265.3281899157049</v>
+        <v>715.5647478579867</v>
       </c>
       <c r="G4">
-        <v>29.13292022632267</v>
+        <v>41.20070611881376</v>
       </c>
       <c r="H4">
         <v>5.665435682573904</v>
@@ -585,7 +585,7 @@
         <v>102.3420583816547</v>
       </c>
       <c r="B5">
-        <v>100.4919717616041</v>
+        <v>152.6102146621956</v>
       </c>
       <c r="C5">
         <v>0.434120663231486</v>
@@ -635,7 +635,7 @@
         <v>368.6324691032995</v>
       </c>
       <c r="E6">
-        <v>69.50850006434182</v>
+        <v>549.636182044648</v>
       </c>
       <c r="F6">
         <v>39.0255578659544</v>
@@ -653,7 +653,7 @@
         <v>42.52871411013022</v>
       </c>
       <c r="K6">
-        <v>6.809650057385682</v>
+        <v>12.29349076670159</v>
       </c>
       <c r="L6">
         <v>4.819044803064946</v>
@@ -714,7 +714,7 @@
         <v>0.4366797245239201</v>
       </c>
       <c r="D8">
-        <v>215.5664221006269</v>
+        <v>769.438046154726</v>
       </c>
       <c r="E8">
         <v>394.7682126112981</v>
@@ -755,10 +755,10 @@
         <v>0.4502271083297381</v>
       </c>
       <c r="D9">
-        <v>215.5664221006269</v>
+        <v>739.2521002867514</v>
       </c>
       <c r="E9">
-        <v>69.50850006434182</v>
+        <v>628.8987110817014</v>
       </c>
       <c r="F9">
         <v>104.567692252168</v>
@@ -796,10 +796,10 @@
         <v>0.4144098384414502</v>
       </c>
       <c r="D10">
-        <v>215.5664221006269</v>
+        <v>764.2995518431541</v>
       </c>
       <c r="E10">
-        <v>69.50850006434182</v>
+        <v>627.4375424218914</v>
       </c>
       <c r="F10">
         <v>258.9821786584649</v>
@@ -896,7 +896,7 @@
         <v>62.55656853567272</v>
       </c>
       <c r="J12">
-        <v>46.26622261833533</v>
+        <v>58.46961136889909</v>
       </c>
       <c r="K12">
         <v>6.922420265519817</v>
@@ -963,7 +963,7 @@
         <v>438.0755992782768</v>
       </c>
       <c r="E14">
-        <v>69.50850006434182</v>
+        <v>627.8251253257723</v>
       </c>
       <c r="F14">
         <v>417.7015396511345</v>
@@ -1136,7 +1136,7 @@
         <v>30.45654276658988</v>
       </c>
       <c r="H18">
-        <v>5.597177522450525</v>
+        <v>7.024087197541531</v>
       </c>
       <c r="I18">
         <v>49.71040022892781</v>
@@ -1165,10 +1165,10 @@
         <v>0.4573199082089812</v>
       </c>
       <c r="D19">
-        <v>215.5664221006269</v>
+        <v>708.2201308163022</v>
       </c>
       <c r="E19">
-        <v>69.50850006434182</v>
+        <v>618.9135505419601</v>
       </c>
       <c r="F19">
         <v>390.7499923094343</v>
@@ -1414,7 +1414,7 @@
         <v>568.7757153453913</v>
       </c>
       <c r="E25">
-        <v>69.50850006434182</v>
+        <v>550.9298795814609</v>
       </c>
       <c r="F25">
         <v>510.2671135743782</v>
@@ -1484,10 +1484,10 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27">
-        <v>78.84766038269069</v>
+        <v>105.5919937852185</v>
       </c>
       <c r="B27">
-        <v>100.4919717616041</v>
+        <v>141.6609997456531</v>
       </c>
       <c r="C27">
         <v>0.4189737810481011</v>
@@ -1525,10 +1525,10 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28">
-        <v>78.84766038269069</v>
+        <v>114.4139067639065</v>
       </c>
       <c r="B28">
-        <v>100.4919717616041</v>
+        <v>161.9747990881757</v>
       </c>
       <c r="C28">
         <v>0.4020053061861767</v>
@@ -1692,7 +1692,7 @@
         <v>95.0219940219738</v>
       </c>
       <c r="B32">
-        <v>100.4919717616041</v>
+        <v>141.6472116557782</v>
       </c>
       <c r="C32">
         <v>0.4276647125044483</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33">
-        <v>78.84766038269069</v>
+        <v>111.5017404426501</v>
       </c>
       <c r="B33">
         <v>131.0638163017116</v>
@@ -1836,7 +1836,7 @@
         <v>5.627840924405923</v>
       </c>
       <c r="I35">
-        <v>49.71040022892781</v>
+        <v>65.40673371320378</v>
       </c>
       <c r="J35">
         <v>45.58672678266525</v>
@@ -1845,7 +1845,7 @@
         <v>9.325598259819333</v>
       </c>
       <c r="L35">
-        <v>7.852434593833291</v>
+        <v>14.50489306846166</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37">
-        <v>78.84766038269069</v>
+        <v>111.3520817003827</v>
       </c>
       <c r="B37">
         <v>125.8136483228437</v>
@@ -1924,7 +1924,7 @@
         <v>42.11665287024424</v>
       </c>
       <c r="K37">
-        <v>6.809650057385682</v>
+        <v>11.82912575483248</v>
       </c>
       <c r="L37">
         <v>11.95405384136524</v>
@@ -1953,10 +1953,10 @@
         <v>273.8046275416939</v>
       </c>
       <c r="G38">
-        <v>29.13292022632267</v>
+        <v>38.35909640981291</v>
       </c>
       <c r="H38">
-        <v>5.597177522450525</v>
+        <v>7.57975387246012</v>
       </c>
       <c r="I38">
         <v>49.71040022892781</v>
@@ -2161,7 +2161,7 @@
         <v>29.92975712951994</v>
       </c>
       <c r="H43">
-        <v>5.597177522450525</v>
+        <v>6.943406371629113</v>
       </c>
       <c r="I43">
         <v>47.41198597532473</v>
@@ -2205,7 +2205,7 @@
         <v>5.783943642756546</v>
       </c>
       <c r="I44">
-        <v>49.71040022892781</v>
+        <v>69.5169514939565</v>
       </c>
       <c r="J44">
         <v>53.0360496061021</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48">
-        <v>78.84766038269069</v>
+        <v>112.5917253129942</v>
       </c>
       <c r="B48">
         <v>99.17786981346069</v>
@@ -2439,7 +2439,7 @@
         <v>687.5657974196372</v>
       </c>
       <c r="E50">
-        <v>69.50850006434182</v>
+        <v>628.7313637381643</v>
       </c>
       <c r="F50">
         <v>497.1927078677543</v>
@@ -2451,7 +2451,7 @@
         <v>5.63032957447236</v>
       </c>
       <c r="I50">
-        <v>49.71040022892781</v>
+        <v>66.09474498046217</v>
       </c>
       <c r="J50">
         <v>51.43071896079773</v>
@@ -2518,10 +2518,10 @@
         <v>0.4214507872002143</v>
       </c>
       <c r="D52">
-        <v>215.5664221006269</v>
+        <v>840.8222945657901</v>
       </c>
       <c r="E52">
-        <v>69.50850006434182</v>
+        <v>641.7628984177434</v>
       </c>
       <c r="F52">
         <v>676.1732137313085</v>
@@ -2533,7 +2533,7 @@
         <v>5.977045289479667</v>
       </c>
       <c r="I52">
-        <v>49.71040022892781</v>
+        <v>68.71302859451443</v>
       </c>
       <c r="J52">
         <v>52.91228781457625</v>
@@ -2571,7 +2571,7 @@
         <v>24.32231876532898</v>
       </c>
       <c r="H53">
-        <v>5.597177522450525</v>
+        <v>7.064644746661837</v>
       </c>
       <c r="I53">
         <v>60.55419441442294</v>
@@ -2621,7 +2621,7 @@
         <v>47.78073749215349</v>
       </c>
       <c r="K54">
-        <v>6.809650057385682</v>
+        <v>11.2274671170058</v>
       </c>
       <c r="L54">
         <v>11.25362808054009</v>
@@ -2641,16 +2641,16 @@
         <v>0.4498383565414176</v>
       </c>
       <c r="D55">
-        <v>215.5664221006269</v>
+        <v>764.804365882961</v>
       </c>
       <c r="E55">
-        <v>69.50850006434182</v>
+        <v>644.5006344072942</v>
       </c>
       <c r="F55">
         <v>139.628190540988</v>
       </c>
       <c r="G55">
-        <v>29.13292022632267</v>
+        <v>39.24865302158136</v>
       </c>
       <c r="H55">
         <v>5.811971213348118</v>
@@ -2723,10 +2723,10 @@
         <v>0.4348113516489094</v>
       </c>
       <c r="D57">
-        <v>215.5664221006269</v>
+        <v>790.1957082704004</v>
       </c>
       <c r="E57">
-        <v>69.50850006434182</v>
+        <v>636.131450025302</v>
       </c>
       <c r="F57">
         <v>660.4005618783822</v>
@@ -2738,7 +2738,7 @@
         <v>6.018490743893444</v>
       </c>
       <c r="I57">
-        <v>49.71040022892781</v>
+        <v>68.96966280093709</v>
       </c>
       <c r="J57">
         <v>48.63636133577672</v>
@@ -2779,7 +2779,7 @@
         <v>5.699894556285257</v>
       </c>
       <c r="I58">
-        <v>49.71040022892781</v>
+        <v>66.75613766025387</v>
       </c>
       <c r="J58">
         <v>48.12658386187999</v>
@@ -2805,13 +2805,13 @@
         <v>0.4416068232708784</v>
       </c>
       <c r="D59">
-        <v>215.5664221006269</v>
+        <v>839.8594741684648</v>
       </c>
       <c r="E59">
-        <v>69.50850006434182</v>
+        <v>635.7285245284094</v>
       </c>
       <c r="F59">
-        <v>265.3281899157049</v>
+        <v>701.7716381427562</v>
       </c>
       <c r="G59">
         <v>28.04783351444359</v>
@@ -2899,7 +2899,7 @@
         <v>30.91837455113873</v>
       </c>
       <c r="H61">
-        <v>5.597177522450525</v>
+        <v>7.605988657183975</v>
       </c>
       <c r="I61">
         <v>45.55546751430359</v>
@@ -3004,7 +3004,7 @@
         <v>98.75173608767751</v>
       </c>
       <c r="B64">
-        <v>100.4919717616041</v>
+        <v>167.7899841264303</v>
       </c>
       <c r="C64">
         <v>0.4207557102353056</v>
@@ -3045,7 +3045,7 @@
         <v>96.10280345573034</v>
       </c>
       <c r="B65">
-        <v>100.4919717616041</v>
+        <v>136.9777111798965</v>
       </c>
       <c r="C65">
         <v>0.4220508584682262</v>
@@ -3107,10 +3107,10 @@
         <v>5.774826278163557</v>
       </c>
       <c r="I66">
-        <v>49.71040022892781</v>
+        <v>66.30924382151869</v>
       </c>
       <c r="J66">
-        <v>46.26622261833533</v>
+        <v>58.77569709658584</v>
       </c>
       <c r="K66">
         <v>5.829646640448192</v>
@@ -3218,10 +3218,10 @@
         <v>678.6506525002932</v>
       </c>
       <c r="E69">
-        <v>69.50850006434182</v>
+        <v>620.6614770762487</v>
       </c>
       <c r="F69">
-        <v>265.3281899157049</v>
+        <v>-152.3536205464748</v>
       </c>
       <c r="G69">
         <v>29.58120627052601</v>
@@ -3268,7 +3268,7 @@
         <v>29.13437207346217</v>
       </c>
       <c r="H70">
-        <v>5.597177522450525</v>
+        <v>7.202250277028895</v>
       </c>
       <c r="I70">
         <v>49.71040022892781</v>
@@ -3511,7 +3511,7 @@
         <v>556.6249323278261</v>
       </c>
       <c r="G76">
-        <v>29.13292022632267</v>
+        <v>40.26426147356647</v>
       </c>
       <c r="H76">
         <v>5.198956924727185</v>
@@ -3534,10 +3534,10 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77">
-        <v>78.84766038269069</v>
+        <v>111.4914393439984</v>
       </c>
       <c r="B77">
-        <v>100.4919717616041</v>
+        <v>146.4686728020293</v>
       </c>
       <c r="C77">
         <v>0.4602462979927481</v>
@@ -3584,7 +3584,7 @@
         <v>0.4079720788556827</v>
       </c>
       <c r="D78">
-        <v>215.5664221006269</v>
+        <v>721.3103510539883</v>
       </c>
       <c r="E78">
         <v>299.6486785273397</v>
@@ -3801,7 +3801,7 @@
         <v>27.91541480879335</v>
       </c>
       <c r="H83">
-        <v>5.597177522450525</v>
+        <v>7.108337187208651</v>
       </c>
       <c r="I83">
         <v>49.71040022892781</v>
@@ -3830,16 +3830,16 @@
         <v>0.4108603596342614</v>
       </c>
       <c r="D84">
-        <v>215.5664221006269</v>
+        <v>718.230357567036</v>
       </c>
       <c r="E84">
-        <v>69.50850006434182</v>
+        <v>646.0692413971683</v>
       </c>
       <c r="F84">
         <v>265.1134365685485</v>
       </c>
       <c r="G84">
-        <v>29.13292022632267</v>
+        <v>42.01105249898848</v>
       </c>
       <c r="H84">
         <v>5.990489408361691</v>
@@ -3862,10 +3862,10 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85">
-        <v>78.84766038269069</v>
+        <v>112.0523180202995</v>
       </c>
       <c r="B85">
-        <v>100.4919717616041</v>
+        <v>163.5682222669439</v>
       </c>
       <c r="C85">
         <v>0.4192800177411299</v>
@@ -3924,7 +3924,7 @@
         <v>36.30628376572459</v>
       </c>
       <c r="H86">
-        <v>5.597177522450525</v>
+        <v>7.483895923384783</v>
       </c>
       <c r="I86">
         <v>49.87680877302208</v>
@@ -3985,10 +3985,10 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88">
-        <v>78.84766038269069</v>
+        <v>111.8972643236909</v>
       </c>
       <c r="B88">
-        <v>100.4919717616041</v>
+        <v>160.5666177076068</v>
       </c>
       <c r="C88">
         <v>0.4237542830002363</v>
@@ -4079,7 +4079,7 @@
         <v>687.7703104414837</v>
       </c>
       <c r="E90">
-        <v>69.50850006434182</v>
+        <v>555.3637939562329</v>
       </c>
       <c r="F90">
         <v>534.6073582518986</v>
@@ -4111,7 +4111,7 @@
         <v>101.2636102927042</v>
       </c>
       <c r="B91">
-        <v>100.4919717616041</v>
+        <v>164.0897418567739</v>
       </c>
       <c r="C91">
         <v>0.408125760834444</v>
@@ -4211,7 +4211,7 @@
         <v>29.72237966505602</v>
       </c>
       <c r="H93">
-        <v>5.597177522450525</v>
+        <v>7.16634152710241</v>
       </c>
       <c r="I93">
         <v>47.54392146647807</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97">
-        <v>78.84766038269069</v>
+        <v>111.6633263603731</v>
       </c>
       <c r="B97">
         <v>122.9038877836025</v>
@@ -4375,7 +4375,7 @@
         <v>28.74074114059125</v>
       </c>
       <c r="H97">
-        <v>5.597177522450525</v>
+        <v>4.242315373865486</v>
       </c>
       <c r="I97">
         <v>45.19374092811255</v>
@@ -4407,7 +4407,7 @@
         <v>340.6033099971603</v>
       </c>
       <c r="E98">
-        <v>69.50850006434182</v>
+        <v>574.0970547422147</v>
       </c>
       <c r="F98">
         <v>92.48117824068009</v>
@@ -4445,7 +4445,7 @@
         <v>0.4271313678438072</v>
       </c>
       <c r="D99">
-        <v>215.5664221006269</v>
+        <v>708.0922792504057</v>
       </c>
       <c r="E99">
         <v>328.2547334044357</v>
@@ -4486,16 +4486,16 @@
         <v>0.4147245531739041</v>
       </c>
       <c r="D100">
-        <v>215.5664221006269</v>
+        <v>840.0205269485706</v>
       </c>
       <c r="E100">
-        <v>69.50850006434182</v>
+        <v>637.0736387771979</v>
       </c>
       <c r="F100">
         <v>633.8758889067676</v>
       </c>
       <c r="G100">
-        <v>29.13292022632267</v>
+        <v>37.99068318425614</v>
       </c>
       <c r="H100">
         <v>5.949752763728788</v>
@@ -4504,7 +4504,7 @@
         <v>58.7848426108522</v>
       </c>
       <c r="J100">
-        <v>46.26622261833533</v>
+        <v>58.0365014709813</v>
       </c>
       <c r="K100">
         <v>4.544638864563429</v>
@@ -4518,10 +4518,10 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101">
-        <v>78.84766038269069</v>
+        <v>112.538297979288</v>
       </c>
       <c r="B101">
-        <v>100.4919717616041</v>
+        <v>157.7089050255035</v>
       </c>
       <c r="C101">
         <v>0.4251311757362499</v>
@@ -4618,7 +4618,7 @@
         <v>323.653043013046</v>
       </c>
       <c r="G103">
-        <v>29.13292022632267</v>
+        <v>39.63890237216941</v>
       </c>
       <c r="H103">
         <v>6.131365680062875</v>
@@ -4773,16 +4773,16 @@
         <v>0.4306914584484523</v>
       </c>
       <c r="D107">
-        <v>215.5664221006269</v>
+        <v>737.0245110130595</v>
       </c>
       <c r="E107">
-        <v>69.50850006434182</v>
+        <v>640.6869095857844</v>
       </c>
       <c r="F107">
         <v>156.2721374309208</v>
       </c>
       <c r="G107">
-        <v>29.13292022632267</v>
+        <v>41.56547403544213</v>
       </c>
       <c r="H107">
         <v>5.737282006451856</v>
@@ -4811,7 +4811,7 @@
         <v>109.4801798793974</v>
       </c>
       <c r="C108">
-        <v>0.4350969366072029</v>
+        <v>0.4739951065451748</v>
       </c>
       <c r="D108">
         <v>377.0220501944511</v>
@@ -4896,10 +4896,10 @@
         <v>0.4275737660415709</v>
       </c>
       <c r="D110">
-        <v>215.5664221006269</v>
+        <v>837.0756168434084</v>
       </c>
       <c r="E110">
-        <v>69.50850006434182</v>
+        <v>643.9792932347042</v>
       </c>
       <c r="F110">
         <v>673.0095258888122</v>
@@ -4940,7 +4940,7 @@
         <v>477.1505620426873</v>
       </c>
       <c r="E111">
-        <v>69.50850006434182</v>
+        <v>571.5661795264659</v>
       </c>
       <c r="F111">
         <v>311.3768517848742</v>
@@ -5019,7 +5019,7 @@
         <v>0.4510953410013842</v>
       </c>
       <c r="D113">
-        <v>215.5664221006269</v>
+        <v>744.9948171138155</v>
       </c>
       <c r="E113">
         <v>54.73770179315625</v>
@@ -5113,7 +5113,7 @@
         <v>26.38206908261365</v>
       </c>
       <c r="H115">
-        <v>5.597177522450525</v>
+        <v>6.98452986164731</v>
       </c>
       <c r="I115">
         <v>49.71040022892781</v>
@@ -5142,10 +5142,10 @@
         <v>0.4415943119592568</v>
       </c>
       <c r="D116">
-        <v>215.5664221006269</v>
+        <v>796.8964965952898</v>
       </c>
       <c r="E116">
-        <v>69.50850006434182</v>
+        <v>631.3975778198059</v>
       </c>
       <c r="F116">
         <v>608.8800907932093</v>
@@ -5204,7 +5204,7 @@
         <v>43.59669377189347</v>
       </c>
       <c r="K117">
-        <v>6.809650057385682</v>
+        <v>14.0377610864153</v>
       </c>
       <c r="L117">
         <v>13.55052379005118</v>
@@ -5315,7 +5315,7 @@
         <v>609.9311200283984</v>
       </c>
       <c r="G120">
-        <v>29.13292022632267</v>
+        <v>40.30760660482578</v>
       </c>
       <c r="H120">
         <v>6.309101280312094</v>
@@ -5423,7 +5423,7 @@
         <v>100.7473850154433</v>
       </c>
       <c r="B123">
-        <v>100.4919717616041</v>
+        <v>138.0554550137241</v>
       </c>
       <c r="C123">
         <v>0.4441563627637348</v>
@@ -5523,7 +5523,7 @@
         <v>27.84851741505526</v>
       </c>
       <c r="H125">
-        <v>5.597177522450525</v>
+        <v>7.236505304484034</v>
       </c>
       <c r="I125">
         <v>51.84822253108565</v>
@@ -5646,7 +5646,7 @@
         <v>25.98772189989426</v>
       </c>
       <c r="H128">
-        <v>5.597177522450525</v>
+        <v>7.461674431932828</v>
       </c>
       <c r="I128">
         <v>49.71040022892781</v>
@@ -5851,7 +5851,7 @@
         <v>28.76880020066898</v>
       </c>
       <c r="H133">
-        <v>5.597177522450525</v>
+        <v>4.083713052910833</v>
       </c>
       <c r="I133">
         <v>49.71040022892781</v>
@@ -5880,7 +5880,7 @@
         <v>0.4202283656412261</v>
       </c>
       <c r="D134">
-        <v>215.5664221006269</v>
+        <v>724.8347317624922</v>
       </c>
       <c r="E134">
         <v>77.50896446166736</v>
@@ -6018,7 +6018,7 @@
         <v>4.456878757236538</v>
       </c>
       <c r="I137">
-        <v>49.71040022892781</v>
+        <v>68.09058918723949</v>
       </c>
       <c r="J137">
         <v>52.1426998007592</v>
@@ -6047,7 +6047,7 @@
         <v>638.9723919166811</v>
       </c>
       <c r="E138">
-        <v>69.50850006434182</v>
+        <v>570.7669748174669</v>
       </c>
       <c r="F138">
         <v>425.4259614175213</v>
@@ -6079,7 +6079,7 @@
         <v>90.15133026039886</v>
       </c>
       <c r="B139">
-        <v>100.4919717616041</v>
+        <v>137.3664140986783</v>
       </c>
       <c r="C139">
         <v>0.4080026381822587</v>
@@ -6211,7 +6211,7 @@
         <v>666.2802301870738</v>
       </c>
       <c r="E142">
-        <v>69.50850006434182</v>
+        <v>617.0496255151277</v>
       </c>
       <c r="F142">
         <v>133.3149687641889</v>
@@ -6223,7 +6223,7 @@
         <v>5.898068842077579</v>
       </c>
       <c r="I142">
-        <v>49.71040022892781</v>
+        <v>65.66627151635942</v>
       </c>
       <c r="J142">
         <v>50.5677012495716</v>
@@ -6340,7 +6340,7 @@
         <v>390.1325032082123</v>
       </c>
       <c r="G145">
-        <v>29.13292022632267</v>
+        <v>41.00004551499223</v>
       </c>
       <c r="H145">
         <v>6.040538485139178</v>
@@ -6372,10 +6372,10 @@
         <v>0.4215086670868317</v>
       </c>
       <c r="D146">
-        <v>215.5664221006269</v>
+        <v>783.9106894553128</v>
       </c>
       <c r="E146">
-        <v>69.50850006434182</v>
+        <v>636.5117212843807</v>
       </c>
       <c r="F146">
         <v>656.6155518216729</v>
@@ -6530,7 +6530,7 @@
         <v>88.83387306927301</v>
       </c>
       <c r="B150">
-        <v>100.4919717616041</v>
+        <v>140.654852867332</v>
       </c>
       <c r="C150">
         <v>0.4293678483300236</v>
@@ -6577,7 +6577,7 @@
         <v>0.4667184226314931</v>
       </c>
       <c r="D151">
-        <v>215.5664221006269</v>
+        <v>715.055380264414</v>
       </c>
       <c r="E151">
         <v>120.9877909940913</v>
@@ -6598,7 +6598,7 @@
         <v>53.1763934697268</v>
       </c>
       <c r="K151">
-        <v>6.809650057385682</v>
+        <v>11.48376043670214</v>
       </c>
       <c r="L151">
         <v>7.836424840275405</v>
@@ -6630,7 +6630,7 @@
         <v>31.32372087904484</v>
       </c>
       <c r="H152">
-        <v>5.597177522450525</v>
+        <v>7.171004975218067</v>
       </c>
       <c r="I152">
         <v>49.71040022892781</v>
@@ -6650,10 +6650,10 @@
     </row>
     <row r="153" spans="1:13">
       <c r="A153">
-        <v>78.84766038269069</v>
+        <v>107.1512276227897</v>
       </c>
       <c r="B153">
-        <v>100.4919717616041</v>
+        <v>138.2829270539555</v>
       </c>
       <c r="C153">
         <v>0.4559106512744405</v>
@@ -6765,7 +6765,7 @@
         <v>11.01292141159067</v>
       </c>
       <c r="L155">
-        <v>7.852434593833291</v>
+        <v>16.86872204859698</v>
       </c>
       <c r="M155">
         <v>0</v>
@@ -6817,7 +6817,7 @@
         <v>101.4579773245797</v>
       </c>
       <c r="B157">
-        <v>100.4919717616041</v>
+        <v>138.6597054915414</v>
       </c>
       <c r="C157">
         <v>0.4233268439102078</v>
@@ -6864,13 +6864,13 @@
         <v>0.419891873595415</v>
       </c>
       <c r="D158">
-        <v>215.5664221006269</v>
+        <v>844.4001257151365</v>
       </c>
       <c r="E158">
-        <v>69.50850006434182</v>
+        <v>640.6435162807383</v>
       </c>
       <c r="F158">
-        <v>265.3281899157049</v>
+        <v>688.8453242676671</v>
       </c>
       <c r="G158">
         <v>27.77711705635537</v>
@@ -6908,10 +6908,10 @@
         <v>653.837516270691</v>
       </c>
       <c r="E159">
-        <v>69.50850006434182</v>
+        <v>623.4651340629082</v>
       </c>
       <c r="F159">
-        <v>265.3281899157049</v>
+        <v>-179.955900138058</v>
       </c>
       <c r="G159">
         <v>25.81369909806082</v>
@@ -7031,7 +7031,7 @@
         <v>89.55263446805134</v>
       </c>
       <c r="E162">
-        <v>69.50850006434182</v>
+        <v>570.5000389280183</v>
       </c>
       <c r="F162">
         <v>517.3234222752147</v>
@@ -7081,7 +7081,7 @@
         <v>33.07096502629886</v>
       </c>
       <c r="H163">
-        <v>5.597177522450525</v>
+        <v>6.910089159888312</v>
       </c>
       <c r="I163">
         <v>53.37914234518926</v>
@@ -7142,10 +7142,10 @@
     </row>
     <row r="165" spans="1:13">
       <c r="A165">
-        <v>78.84766038269069</v>
+        <v>110.9166932937594</v>
       </c>
       <c r="B165">
-        <v>100.4919717616041</v>
+        <v>140.6970177572102</v>
       </c>
       <c r="C165">
         <v>0.4244847609331602</v>
@@ -7242,10 +7242,10 @@
         <v>414.8926903622033</v>
       </c>
       <c r="G167">
-        <v>29.13292022632267</v>
+        <v>39.05673096693634</v>
       </c>
       <c r="H167">
-        <v>5.597177522450525</v>
+        <v>7.052823556363232</v>
       </c>
       <c r="I167">
         <v>49.41677155354413</v>
@@ -7306,10 +7306,10 @@
     </row>
     <row r="169" spans="1:13">
       <c r="A169">
-        <v>78.84766038269069</v>
+        <v>111.4850542761686</v>
       </c>
       <c r="B169">
-        <v>100.4919717616041</v>
+        <v>148.3205741334213</v>
       </c>
       <c r="C169">
         <v>0.4505504016392564</v>
@@ -7327,7 +7327,7 @@
         <v>28.99802518416884</v>
       </c>
       <c r="H169">
-        <v>5.597177522450525</v>
+        <v>4.090673478206685</v>
       </c>
       <c r="I169">
         <v>44.13185250158171</v>
@@ -7388,7 +7388,7 @@
     </row>
     <row r="171" spans="1:13">
       <c r="A171">
-        <v>78.84766038269069</v>
+        <v>106.3466314363486</v>
       </c>
       <c r="B171">
         <v>129.992001047214</v>
@@ -7400,10 +7400,10 @@
         <v>117.2882989479632</v>
       </c>
       <c r="E171">
-        <v>69.50850006434182</v>
+        <v>609.6973617561991</v>
       </c>
       <c r="F171">
-        <v>265.3281899157049</v>
+        <v>-161.4931562304079</v>
       </c>
       <c r="G171">
         <v>29.78422942850149</v>
@@ -7444,7 +7444,7 @@
         <v>522.270791882649</v>
       </c>
       <c r="F172">
-        <v>265.3281899157049</v>
+        <v>691.6396616499446</v>
       </c>
       <c r="G172">
         <v>30.9185390002742</v>
@@ -7462,7 +7462,7 @@
         <v>9.106183434675875</v>
       </c>
       <c r="L172">
-        <v>7.852434593833291</v>
+        <v>14.15838961073769</v>
       </c>
       <c r="M172">
         <v>0</v>
@@ -7470,7 +7470,7 @@
     </row>
     <row r="173" spans="1:13">
       <c r="A173">
-        <v>78.84766038269069</v>
+        <v>105.1996646229783</v>
       </c>
       <c r="B173">
         <v>124.6309535897966</v>
@@ -7769,7 +7769,7 @@
         <v>640.2164341458312</v>
       </c>
       <c r="E180">
-        <v>69.50850006434182</v>
+        <v>625.2837872770488</v>
       </c>
       <c r="F180">
         <v>466.2494915943392</v>
@@ -7851,7 +7851,7 @@
         <v>655.3101187618572</v>
       </c>
       <c r="E182">
-        <v>69.50850006434182</v>
+        <v>615.4407304873303</v>
       </c>
       <c r="F182">
         <v>349.9948139879145</v>
@@ -7951,7 +7951,7 @@
         <v>43.81232670133306</v>
       </c>
       <c r="K184">
-        <v>6.809650057385682</v>
+        <v>11.73311206938727</v>
       </c>
       <c r="L184">
         <v>10.72908869150051</v>
@@ -7974,7 +7974,7 @@
         <v>536.4131969362527</v>
       </c>
       <c r="E185">
-        <v>69.50850006434182</v>
+        <v>574.5993247421163</v>
       </c>
       <c r="F185">
         <v>-82.45720118129893</v>
@@ -8021,7 +8021,7 @@
         <v>517.7053398553633</v>
       </c>
       <c r="G186">
-        <v>29.13292022632267</v>
+        <v>39.19247969679001</v>
       </c>
       <c r="H186">
         <v>5.879568992192919</v>
@@ -8053,7 +8053,7 @@
         <v>0.4553591463779142</v>
       </c>
       <c r="D187">
-        <v>215.5664221006269</v>
+        <v>750.1294553847263</v>
       </c>
       <c r="E187">
         <v>118.457775687762</v>
@@ -8106,7 +8106,7 @@
         <v>29.5149387346579</v>
       </c>
       <c r="H188">
-        <v>5.597177522450525</v>
+        <v>7.031951191552329</v>
       </c>
       <c r="I188">
         <v>44.14348094693682</v>
@@ -8241,7 +8241,7 @@
         <v>10.23125908764751</v>
       </c>
       <c r="L191">
-        <v>7.852434593833291</v>
+        <v>18.96529270043984</v>
       </c>
       <c r="M191">
         <v>0</v>
@@ -8498,7 +8498,7 @@
         <v>96.66377734639592</v>
       </c>
       <c r="B198">
-        <v>100.4919717616041</v>
+        <v>141.4413881194428</v>
       </c>
       <c r="C198">
         <v>0.4253158006458884</v>
@@ -8539,7 +8539,7 @@
         <v>96.03437662133902</v>
       </c>
       <c r="B199">
-        <v>100.4919717616041</v>
+        <v>170.6550138676112</v>
       </c>
       <c r="C199">
         <v>0.4308545894646608</v>
@@ -8785,7 +8785,7 @@
         <v>84.82480501844358</v>
       </c>
       <c r="B205">
-        <v>105.0710519457333</v>
+        <v>161.1730768318419</v>
       </c>
       <c r="C205">
         <v>0.4292502480301544</v>
@@ -8803,7 +8803,7 @@
         <v>38.18930960096463</v>
       </c>
       <c r="H205">
-        <v>5.230944037855568</v>
+        <v>8.951977521986468</v>
       </c>
       <c r="I205">
         <v>43.12904947598878</v>
@@ -8844,7 +8844,7 @@
         <v>27.12022676846412</v>
       </c>
       <c r="H206">
-        <v>5.230944037855568</v>
+        <v>8.578698933308074</v>
       </c>
       <c r="I206">
         <v>52.23556379985967</v>
@@ -8923,7 +8923,7 @@
         <v>-299.5800828937284</v>
       </c>
       <c r="G208">
-        <v>27.48345876665583</v>
+        <v>9.999159924720802</v>
       </c>
       <c r="H208">
         <v>4.99045513830162</v>
@@ -9143,7 +9143,7 @@
         <v>10.01372759437025</v>
       </c>
       <c r="L213">
-        <v>5.153077939034731</v>
+        <v>10.58184513395068</v>
       </c>
       <c r="M213">
         <v>1</v>
@@ -9169,7 +9169,7 @@
         <v>299.2257316217975</v>
       </c>
       <c r="G214">
-        <v>27.48345876665583</v>
+        <v>10.16231852194074</v>
       </c>
       <c r="H214">
         <v>3.803145246529124</v>
@@ -9198,7 +9198,7 @@
         <v>109.3111563287595</v>
       </c>
       <c r="C215">
-        <v>0.4113825448843069</v>
+        <v>0.3558616359413532</v>
       </c>
       <c r="D215">
         <v>420.937107946211</v>
@@ -9210,7 +9210,7 @@
         <v>290.4623108308091</v>
       </c>
       <c r="G215">
-        <v>27.48345876665583</v>
+        <v>12.68117112481538</v>
       </c>
       <c r="H215">
         <v>4.482227436251876</v>
@@ -9277,7 +9277,7 @@
         <v>87.36333739214737</v>
       </c>
       <c r="B217">
-        <v>105.0710519457333</v>
+        <v>138.7529964778952</v>
       </c>
       <c r="C217">
         <v>0.3620447683386365</v>
@@ -9626,16 +9626,16 @@
         <v>6.746276649140185</v>
       </c>
       <c r="I225">
-        <v>47.7911978444278</v>
+        <v>53.03796391898521</v>
       </c>
       <c r="J225">
         <v>52.66708674543983</v>
       </c>
       <c r="K225">
-        <v>5.369787394276989</v>
+        <v>12.07255071320576</v>
       </c>
       <c r="L225">
-        <v>5.153077939034731</v>
+        <v>11.94415592715089</v>
       </c>
       <c r="M225">
         <v>1</v>
@@ -9889,10 +9889,10 @@
     </row>
     <row r="232" spans="1:13">
       <c r="A232">
-        <v>73.68997450858406</v>
+        <v>108.0672199558123</v>
       </c>
       <c r="B232">
-        <v>105.0710519457333</v>
+        <v>148.7876482422884</v>
       </c>
       <c r="C232">
         <v>0.453577655789255</v>
@@ -9960,10 +9960,10 @@
         <v>48.73497546024884</v>
       </c>
       <c r="K233">
-        <v>5.369787394276989</v>
+        <v>12.39205964440467</v>
       </c>
       <c r="L233">
-        <v>5.153077939034731</v>
+        <v>11.97485121925845</v>
       </c>
       <c r="M233">
         <v>1</v>
@@ -10004,7 +10004,7 @@
         <v>10.02</v>
       </c>
       <c r="L234">
-        <v>5.153077939034731</v>
+        <v>10.87155676671838</v>
       </c>
       <c r="M234">
         <v>1</v>
@@ -10147,7 +10147,7 @@
         <v>692.4600248348022</v>
       </c>
       <c r="E238">
-        <v>70.43650687633779</v>
+        <v>536.7499256907192</v>
       </c>
       <c r="F238">
         <v>-133.9177156586063</v>
@@ -10179,7 +10179,7 @@
         <v>82.11154540620255</v>
       </c>
       <c r="B239">
-        <v>105.0710519457333</v>
+        <v>137.0142648771493</v>
       </c>
       <c r="C239">
         <v>0.434994108733234</v>
@@ -10217,10 +10217,10 @@
     </row>
     <row r="240" spans="1:13">
       <c r="A240">
-        <v>73.68997450858406</v>
+        <v>115.5699460891153</v>
       </c>
       <c r="B240">
-        <v>105.0710519457333</v>
+        <v>138.3817879362095</v>
       </c>
       <c r="C240">
         <v>0.43634308905866</v>
@@ -10311,7 +10311,7 @@
         <v>457.0361581599238</v>
       </c>
       <c r="E242">
-        <v>70.43650687633779</v>
+        <v>601.0640356014552</v>
       </c>
       <c r="F242">
         <v>690.893897143101</v>
@@ -10343,7 +10343,7 @@
         <v>92.20284737704668</v>
       </c>
       <c r="B243">
-        <v>105.0710519457333</v>
+        <v>140.2433609561087</v>
       </c>
       <c r="C243">
         <v>0.4457164858427883</v>
@@ -10352,7 +10352,7 @@
         <v>493.6658584896319</v>
       </c>
       <c r="E243">
-        <v>70.43650687633779</v>
+        <v>512.431114733415</v>
       </c>
       <c r="F243">
         <v>-513.1630853721614</v>
@@ -10443,7 +10443,7 @@
         <v>19.97438778850341</v>
       </c>
       <c r="H245">
-        <v>5.230944037855568</v>
+        <v>2.054249760978415</v>
       </c>
       <c r="I245">
         <v>47.7911978444278</v>
@@ -10490,7 +10490,7 @@
         <v>47.7911978444278</v>
       </c>
       <c r="J246">
-        <v>46.5464864253205</v>
+        <v>34.95537917246221</v>
       </c>
       <c r="K246">
         <v>5.369787394276989</v>
@@ -10537,7 +10537,7 @@
         <v>5.369787394276989</v>
       </c>
       <c r="L247">
-        <v>5.153077939034731</v>
+        <v>13.79682390410586</v>
       </c>
       <c r="M247">
         <v>1</v>
@@ -10607,7 +10607,7 @@
         <v>35.89829308320214</v>
       </c>
       <c r="H249">
-        <v>5.230944037855568</v>
+        <v>8.338782580449269</v>
       </c>
       <c r="I249">
         <v>47.7911978444278</v>
@@ -10680,7 +10680,7 @@
         <v>552.9668907165984</v>
       </c>
       <c r="E251">
-        <v>70.43650687633779</v>
+        <v>608.8343253261708</v>
       </c>
       <c r="F251">
         <v>-71.24076906764583</v>
@@ -10832,7 +10832,7 @@
     </row>
     <row r="255" spans="1:13">
       <c r="A255">
-        <v>73.68997450858406</v>
+        <v>104.5570716924232</v>
       </c>
       <c r="B255">
         <v>125.8215898579864</v>
@@ -10850,10 +10850,10 @@
         <v>501.147646885112</v>
       </c>
       <c r="G255">
-        <v>27.48345876665583</v>
+        <v>44.70231521169267</v>
       </c>
       <c r="H255">
-        <v>5.230944037855568</v>
+        <v>9.369221265993469</v>
       </c>
       <c r="I255">
         <v>47.7911978444278</v>
@@ -10879,7 +10879,7 @@
         <v>107.1500515338941</v>
       </c>
       <c r="C256">
-        <v>0.4113825448843069</v>
+        <v>0.3500279839196732</v>
       </c>
       <c r="D256">
         <v>307.3315549739627</v>
@@ -10900,7 +10900,7 @@
         <v>47.7911978444278</v>
       </c>
       <c r="J256">
-        <v>46.5464864253205</v>
+        <v>55.46828479166203</v>
       </c>
       <c r="K256">
         <v>5.369787394276989</v>
@@ -11052,7 +11052,7 @@
         <v>13.52588914542062</v>
       </c>
       <c r="F260">
-        <v>308.1881907907393</v>
+        <v>-160203.5506478589</v>
       </c>
       <c r="G260">
         <v>25.59582185679336</v>
@@ -11105,7 +11105,7 @@
         <v>47.7911978444278</v>
       </c>
       <c r="J261">
-        <v>46.5464864253205</v>
+        <v>55.47959039403207</v>
       </c>
       <c r="K261">
         <v>5.369787394276989</v>
@@ -11137,7 +11137,7 @@
         <v>649.6206533676163</v>
       </c>
       <c r="G262">
-        <v>27.48345876665583</v>
+        <v>12.90538479810525</v>
       </c>
       <c r="H262">
         <v>5.270090155094294</v>
@@ -11263,7 +11263,7 @@
         <v>21.4457457900922</v>
       </c>
       <c r="H265">
-        <v>5.230944037855568</v>
+        <v>2.241582689681501</v>
       </c>
       <c r="I265">
         <v>47.7911978444278</v>
@@ -11377,7 +11377,7 @@
         <v>697.8150817399508</v>
       </c>
       <c r="E268">
-        <v>70.43650687633779</v>
+        <v>604.076011988781</v>
       </c>
       <c r="F268">
         <v>410.676499888745</v>
@@ -11418,7 +11418,7 @@
         <v>748.2931895163053</v>
       </c>
       <c r="E269">
-        <v>70.43650687633779</v>
+        <v>613.3504450357425</v>
       </c>
       <c r="F269">
         <v>302.2561191750019</v>
@@ -11500,7 +11500,7 @@
         <v>585.5376634936852</v>
       </c>
       <c r="E271">
-        <v>70.43650687633779</v>
+        <v>586.014265566131</v>
       </c>
       <c r="F271">
         <v>-641.5799627380596</v>
@@ -11550,7 +11550,7 @@
         <v>33.1928511714973</v>
       </c>
       <c r="H272">
-        <v>5.230944037855568</v>
+        <v>8.377481151095829</v>
       </c>
       <c r="I272">
         <v>47.7911978444278</v>
@@ -11591,7 +11591,7 @@
         <v>25.90608060953742</v>
       </c>
       <c r="H273">
-        <v>5.230944037855568</v>
+        <v>1.731272190256274</v>
       </c>
       <c r="I273">
         <v>47.7911978444278</v>
@@ -11673,7 +11673,7 @@
         <v>33.78203465138543</v>
       </c>
       <c r="H275">
-        <v>5.230944037855568</v>
+        <v>8.194380814916537</v>
       </c>
       <c r="I275">
         <v>47.7911978444278</v>
@@ -11705,7 +11705,7 @@
         <v>539.8807592951541</v>
       </c>
       <c r="E276">
-        <v>70.43650687633779</v>
+        <v>604.8450588193136</v>
       </c>
       <c r="F276">
         <v>465.3452454221459</v>
@@ -11746,7 +11746,7 @@
         <v>759.9694248656937</v>
       </c>
       <c r="E277">
-        <v>70.43650687633779</v>
+        <v>608.7986825485343</v>
       </c>
       <c r="F277">
         <v>-31.4943093617876</v>
@@ -11998,7 +11998,7 @@
         <v>301.9136941666495</v>
       </c>
       <c r="G283">
-        <v>27.48345876665583</v>
+        <v>11.96885257356096</v>
       </c>
       <c r="H283">
         <v>4.551290050808275</v>
@@ -12218,7 +12218,7 @@
         <v>4.651370748874517</v>
       </c>
       <c r="L288">
-        <v>5.153077939034731</v>
+        <v>10.9719697412906</v>
       </c>
       <c r="M288">
         <v>1</v>
@@ -12226,10 +12226,10 @@
     </row>
     <row r="289" spans="1:13">
       <c r="A289">
-        <v>73.68997450858406</v>
+        <v>116.2758661494314</v>
       </c>
       <c r="B289">
-        <v>105.0710519457333</v>
+        <v>148.6319043280793</v>
       </c>
       <c r="C289">
         <v>0.4070728671433231</v>
@@ -12244,10 +12244,10 @@
         <v>564.4065590038002</v>
       </c>
       <c r="G289">
-        <v>27.48345876665583</v>
+        <v>43.04599607232088</v>
       </c>
       <c r="H289">
-        <v>5.230944037855568</v>
+        <v>9.445570469953733</v>
       </c>
       <c r="I289">
         <v>47.7911978444278</v>
@@ -12396,13 +12396,13 @@
         <v>111.1645888855276</v>
       </c>
       <c r="C293">
-        <v>0.4113825448843069</v>
+        <v>0.3499994500349811</v>
       </c>
       <c r="D293">
         <v>466.9597440864348</v>
       </c>
       <c r="E293">
-        <v>70.43650687633779</v>
+        <v>544.1771165480101</v>
       </c>
       <c r="F293">
         <v>420.1466167230166</v>
@@ -12543,10 +12543,10 @@
         <v>48.39866076774792</v>
       </c>
       <c r="K296">
-        <v>5.369787394276989</v>
+        <v>11.47861326889119</v>
       </c>
       <c r="L296">
-        <v>5.153077939034731</v>
+        <v>12.00932697060566</v>
       </c>
       <c r="M296">
         <v>1</v>
@@ -12595,10 +12595,10 @@
     </row>
     <row r="298" spans="1:13">
       <c r="A298">
-        <v>73.68997450858406</v>
+        <v>126.5696566928049</v>
       </c>
       <c r="B298">
-        <v>105.0710519457333</v>
+        <v>142.9478074741633</v>
       </c>
       <c r="C298">
         <v>0.4436680335188332</v>
@@ -12613,13 +12613,13 @@
         <v>562.248765155013</v>
       </c>
       <c r="G298">
-        <v>27.48345876665583</v>
+        <v>45.70911213281352</v>
       </c>
       <c r="H298">
         <v>5.230944037855568</v>
       </c>
       <c r="I298">
-        <v>47.7911978444278</v>
+        <v>42.39816761870903</v>
       </c>
       <c r="J298">
         <v>44.08398582646695</v>
@@ -12707,10 +12707,10 @@
         <v>49.7845394650417</v>
       </c>
       <c r="K300">
-        <v>5.369787394276989</v>
+        <v>12.01879895439125</v>
       </c>
       <c r="L300">
-        <v>5.153077939034731</v>
+        <v>12.02176037948893</v>
       </c>
       <c r="M300">
         <v>1</v>
@@ -12765,13 +12765,13 @@
         <v>104.334158785371</v>
       </c>
       <c r="C302">
-        <v>0.4113825448843069</v>
+        <v>0.3544246377161178</v>
       </c>
       <c r="D302">
         <v>650.2652762742429</v>
       </c>
       <c r="E302">
-        <v>70.43650687633779</v>
+        <v>598.0083048263841</v>
       </c>
       <c r="F302">
         <v>455.3344549579639</v>
@@ -12786,7 +12786,7 @@
         <v>47.7911978444278</v>
       </c>
       <c r="J302">
-        <v>46.5464864253205</v>
+        <v>55.3592786410089</v>
       </c>
       <c r="K302">
         <v>5.369787394276989</v>
@@ -12853,7 +12853,7 @@
         <v>616.397906354203</v>
       </c>
       <c r="E304">
-        <v>70.43650687633779</v>
+        <v>608.356144494967</v>
       </c>
       <c r="F304">
         <v>196.1944159288349</v>
@@ -12885,7 +12885,7 @@
         <v>93.46961714767157</v>
       </c>
       <c r="B305">
-        <v>105.0710519457333</v>
+        <v>138.1860459727756</v>
       </c>
       <c r="C305">
         <v>0.4232743358625665</v>
@@ -13029,7 +13029,7 @@
         <v>6.303001437165524</v>
       </c>
       <c r="I308">
-        <v>47.7911978444278</v>
+        <v>53.54782263413822</v>
       </c>
       <c r="J308">
         <v>52.82300018788312</v>
@@ -13243,7 +13243,7 @@
         <v>10.02</v>
       </c>
       <c r="L313">
-        <v>5.153077939034731</v>
+        <v>10.85962252094874</v>
       </c>
       <c r="M313">
         <v>1</v>
@@ -13345,7 +13345,7 @@
         <v>753.9471513851892</v>
       </c>
       <c r="E316">
-        <v>70.43650687633779</v>
+        <v>606.4182744351651</v>
       </c>
       <c r="F316">
         <v>29.46470491512082</v>
@@ -13357,7 +13357,7 @@
         <v>4.481057052206545</v>
       </c>
       <c r="I316">
-        <v>47.7911978444278</v>
+        <v>53.47656188120124</v>
       </c>
       <c r="J316">
         <v>46.73888227823973</v>
@@ -13471,7 +13471,7 @@
         <v>15.49373084069388</v>
       </c>
       <c r="F319">
-        <v>308.1881907907393</v>
+        <v>-111710.465023292</v>
       </c>
       <c r="G319">
         <v>29.68233522840072</v>
@@ -13550,7 +13550,7 @@
         <v>538.8205723305095</v>
       </c>
       <c r="E321">
-        <v>70.43650687633779</v>
+        <v>615.2351944120193</v>
       </c>
       <c r="F321">
         <v>-619.8858562576447</v>
@@ -13591,13 +13591,13 @@
         <v>549.383549448128</v>
       </c>
       <c r="E322">
-        <v>70.43650687633779</v>
+        <v>541.5601795653832</v>
       </c>
       <c r="F322">
         <v>-300.5940007647492</v>
       </c>
       <c r="G322">
-        <v>27.48345876665583</v>
+        <v>11.74044462320519</v>
       </c>
       <c r="H322">
         <v>5.116495213313919</v>
@@ -13814,10 +13814,10 @@
         <v>52.66203499652354</v>
       </c>
       <c r="K327">
-        <v>5.369787394276989</v>
+        <v>11.92392325304043</v>
       </c>
       <c r="L327">
-        <v>5.153077939034731</v>
+        <v>12.27284504400131</v>
       </c>
       <c r="M327">
         <v>1</v>
@@ -13843,7 +13843,7 @@
         <v>289.7830766222232</v>
       </c>
       <c r="G328">
-        <v>27.48345876665583</v>
+        <v>10.29796481605972</v>
       </c>
       <c r="H328">
         <v>4.366248268605182</v>
@@ -13878,7 +13878,7 @@
         <v>528.9734342909744</v>
       </c>
       <c r="E329">
-        <v>70.43650687633779</v>
+        <v>613.4397647525977</v>
       </c>
       <c r="F329">
         <v>333.4377660610821</v>
@@ -13919,7 +13919,7 @@
         <v>607.602200298581</v>
       </c>
       <c r="E330">
-        <v>70.43650687633779</v>
+        <v>541.8137418470762</v>
       </c>
       <c r="F330">
         <v>-573.1784989153367</v>
@@ -13928,10 +13928,10 @@
         <v>36.41459565484285</v>
       </c>
       <c r="H330">
-        <v>5.230944037855568</v>
+        <v>8.496724065712522</v>
       </c>
       <c r="I330">
-        <v>47.7911978444278</v>
+        <v>41.58321872401041</v>
       </c>
       <c r="J330">
         <v>45.45129061420136</v>
@@ -14042,7 +14042,7 @@
         <v>550.4935158522421</v>
       </c>
       <c r="E333">
-        <v>70.43650687633779</v>
+        <v>614.4624822614041</v>
       </c>
       <c r="F333">
         <v>-299.1307141249547</v>
@@ -14101,7 +14101,7 @@
         <v>44</v>
       </c>
       <c r="K334">
-        <v>5.369787394276989</v>
+        <v>10.85297748167596</v>
       </c>
       <c r="L334">
         <v>5.19247438654924</v>
@@ -14124,7 +14124,7 @@
         <v>668.5829477640103</v>
       </c>
       <c r="E335">
-        <v>70.43650687633779</v>
+        <v>601.7124536332043</v>
       </c>
       <c r="F335">
         <v>456.229713779375</v>
@@ -14139,7 +14139,7 @@
         <v>47.7911978444278</v>
       </c>
       <c r="J335">
-        <v>46.5464864253205</v>
+        <v>56.20474574939942</v>
       </c>
       <c r="K335">
         <v>5.369787394276989</v>
@@ -14153,7 +14153,7 @@
     </row>
     <row r="336" spans="1:13">
       <c r="A336">
-        <v>73.68997450858406</v>
+        <v>112.0356981885696</v>
       </c>
       <c r="B336">
         <v>115.9040341591294</v>
@@ -14171,13 +14171,13 @@
         <v>607.1091980212731</v>
       </c>
       <c r="G336">
-        <v>27.48345876665583</v>
+        <v>43.52456182343339</v>
       </c>
       <c r="H336">
         <v>5.230944037855568</v>
       </c>
       <c r="I336">
-        <v>47.7911978444278</v>
+        <v>42.32184458429727</v>
       </c>
       <c r="J336">
         <v>44.26014331754769</v>
@@ -14206,7 +14206,7 @@
         <v>697.5116815971915</v>
       </c>
       <c r="E337">
-        <v>70.43650687633779</v>
+        <v>564.2374938610726</v>
       </c>
       <c r="F337">
         <v>-640.8259110222912</v>
@@ -14379,7 +14379,7 @@
         <v>14.22470218577234</v>
       </c>
       <c r="H341">
-        <v>5.230944037855568</v>
+        <v>2.238406263574465</v>
       </c>
       <c r="I341">
         <v>47.7911978444278</v>
@@ -14443,7 +14443,7 @@
         <v>65.26293138935699</v>
       </c>
       <c r="B343">
-        <v>105.0710519457333</v>
+        <v>136.8942254583816</v>
       </c>
       <c r="C343">
         <v>0.360632537921807</v>
@@ -14619,7 +14619,7 @@
         <v>20.34710931026404</v>
       </c>
       <c r="F347">
-        <v>308.1881907907393</v>
+        <v>-146804.0882236974</v>
       </c>
       <c r="G347">
         <v>36.25845060050317</v>
@@ -14672,7 +14672,7 @@
         <v>46.39477307164704</v>
       </c>
       <c r="J348">
-        <v>46.5464864253205</v>
+        <v>34.74198317925755</v>
       </c>
       <c r="K348">
         <v>7.955234590323252</v>
@@ -14698,7 +14698,7 @@
         <v>774.0367046438358</v>
       </c>
       <c r="E349">
-        <v>70.43650687633779</v>
+        <v>614.8308148123872</v>
       </c>
       <c r="F349">
         <v>-484.193096872123</v>
@@ -14739,7 +14739,7 @@
         <v>563.4639810706251</v>
       </c>
       <c r="E350">
-        <v>70.43650687633779</v>
+        <v>598.9731643032824</v>
       </c>
       <c r="F350">
         <v>450.5936429094278</v>
@@ -14754,7 +14754,7 @@
         <v>47.7911978444278</v>
       </c>
       <c r="J350">
-        <v>46.5464864253205</v>
+        <v>56.77016658165989</v>
       </c>
       <c r="K350">
         <v>5.369787394276989</v>
@@ -14798,10 +14798,10 @@
         <v>50.45563483201847</v>
       </c>
       <c r="K351">
-        <v>5.369787394276989</v>
+        <v>12.47469247768782</v>
       </c>
       <c r="L351">
-        <v>5.153077939034731</v>
+        <v>12.06696900873298</v>
       </c>
       <c r="M351">
         <v>1</v>
@@ -14830,7 +14830,7 @@
         <v>21.21186476896368</v>
       </c>
       <c r="H352">
-        <v>5.230944037855568</v>
+        <v>8.228068984049134</v>
       </c>
       <c r="I352">
         <v>47.7911978444278</v>
@@ -14921,10 +14921,10 @@
         <v>51.76825984090937</v>
       </c>
       <c r="K354">
-        <v>5.369787394276989</v>
+        <v>12.43085820286833</v>
       </c>
       <c r="L354">
-        <v>5.153077939034731</v>
+        <v>12.52896817613302</v>
       </c>
       <c r="M354">
         <v>1</v>
@@ -14985,7 +14985,7 @@
         <v>229.78893916934</v>
       </c>
       <c r="E356">
-        <v>70.43650687633779</v>
+        <v>579.1259793223926</v>
       </c>
       <c r="F356">
         <v>391.9903074362237</v>
@@ -15082,7 +15082,7 @@
         <v>47.03380602886894</v>
       </c>
       <c r="J358">
-        <v>46.5464864253205</v>
+        <v>37.39072973056371</v>
       </c>
       <c r="K358">
         <v>4.269388702550033</v>
@@ -15137,10 +15137,10 @@
     </row>
     <row r="360" spans="1:13">
       <c r="A360">
-        <v>73.68997450858406</v>
+        <v>113.6333774274788</v>
       </c>
       <c r="B360">
-        <v>105.0710519457333</v>
+        <v>150.9308582892137</v>
       </c>
       <c r="C360">
         <v>0.4118908769451188</v>
@@ -15155,10 +15155,10 @@
         <v>653.082133242279</v>
       </c>
       <c r="G360">
-        <v>27.48345876665583</v>
+        <v>44.80433230767833</v>
       </c>
       <c r="H360">
-        <v>5.230944037855568</v>
+        <v>8.192561926136205</v>
       </c>
       <c r="I360">
         <v>47.7911978444278</v>
@@ -15234,7 +15234,7 @@
         <v>0.3084149242359387</v>
       </c>
       <c r="F362">
-        <v>162.7373001958887</v>
+        <v>696.5591080477335</v>
       </c>
       <c r="G362">
         <v>33.08792697772869</v>
@@ -15246,7 +15246,7 @@
         <v>52.00613327468918</v>
       </c>
       <c r="J362">
-        <v>48.58680318337443</v>
+        <v>40.41938910972746</v>
       </c>
       <c r="K362">
         <v>4.855235647121073</v>
@@ -15354,7 +15354,7 @@
         <v>592.3801139654564</v>
       </c>
       <c r="E365">
-        <v>4.418975825661139</v>
+        <v>624.0729511051834</v>
       </c>
       <c r="F365">
         <v>-162.7478156379742</v>
@@ -15363,7 +15363,7 @@
         <v>30.05661006760355</v>
       </c>
       <c r="H365">
-        <v>5.458789728540561</v>
+        <v>7.510081572781375</v>
       </c>
       <c r="I365">
         <v>44.73807144549271</v>
@@ -15480,7 +15480,7 @@
         <v>1.726746131404579</v>
       </c>
       <c r="F368">
-        <v>162.7373001958887</v>
+        <v>677.2549073837775</v>
       </c>
       <c r="G368">
         <v>30.80819280846661</v>
@@ -15489,7 +15489,7 @@
         <v>4.542651780879706</v>
       </c>
       <c r="I368">
-        <v>52.00613327468918</v>
+        <v>42.14597300066893</v>
       </c>
       <c r="J368">
         <v>42.42424755863119</v>
@@ -15547,10 +15547,10 @@
     </row>
     <row r="370" spans="1:13">
       <c r="A370">
-        <v>72.18760627334177</v>
+        <v>117.9672928864142</v>
       </c>
       <c r="B370">
-        <v>107.3330383687606</v>
+        <v>153.7297516055428</v>
       </c>
       <c r="C370">
         <v>0.4392202297644271</v>
@@ -15682,7 +15682,7 @@
         <v>556.6474989612865</v>
       </c>
       <c r="E373">
-        <v>4.418975825661139</v>
+        <v>639.1450431785624</v>
       </c>
       <c r="F373">
         <v>174.1162375000685</v>
@@ -15764,7 +15764,7 @@
         <v>146.4296136672437</v>
       </c>
       <c r="E375">
-        <v>4.418975825661139</v>
+        <v>535.4354631508243</v>
       </c>
       <c r="F375">
         <v>-48.33713841522962</v>
@@ -15823,7 +15823,7 @@
         <v>44.71630643960022</v>
       </c>
       <c r="K376">
-        <v>4.855235647121073</v>
+        <v>15.7763412007746</v>
       </c>
       <c r="L376">
         <v>6.790835703761932</v>
@@ -15834,13 +15834,13 @@
     </row>
     <row r="377" spans="1:13">
       <c r="A377">
-        <v>72.18760627334177</v>
+        <v>125.2839876533941</v>
       </c>
       <c r="B377">
-        <v>107.3330383687606</v>
+        <v>151.1149885681119</v>
       </c>
       <c r="C377">
-        <v>0.4040116435524579</v>
+        <v>0.4602165409456963</v>
       </c>
       <c r="D377">
         <v>99.1124277818565</v>
@@ -15887,7 +15887,7 @@
         <v>574.0140229663243</v>
       </c>
       <c r="E378">
-        <v>4.418975825661139</v>
+        <v>648.6602176725482</v>
       </c>
       <c r="F378">
         <v>303.0956538887395</v>
@@ -15969,7 +15969,7 @@
         <v>592.592714303544</v>
       </c>
       <c r="E380">
-        <v>4.418975825661139</v>
+        <v>652.5146564293741</v>
       </c>
       <c r="F380">
         <v>-181.8540045303239</v>
@@ -16060,7 +16060,7 @@
         <v>29.62393598820456</v>
       </c>
       <c r="H382">
-        <v>5.458789728540561</v>
+        <v>7.333612887326671</v>
       </c>
       <c r="I382">
         <v>52.00613327468918</v>
@@ -16092,10 +16092,10 @@
         <v>581.9357328603218</v>
       </c>
       <c r="E383">
-        <v>4.418975825661139</v>
+        <v>651.8896412941668</v>
       </c>
       <c r="F383">
-        <v>162.7373001958887</v>
+        <v>-552.6635280083364</v>
       </c>
       <c r="G383">
         <v>27.73638254411609</v>
@@ -16174,7 +16174,7 @@
         <v>306.2591572116547</v>
       </c>
       <c r="E385">
-        <v>4.418975825661139</v>
+        <v>530.5748078892013</v>
       </c>
       <c r="F385">
         <v>89.64241336678091</v>
@@ -16215,7 +16215,7 @@
         <v>562.6035973171049</v>
       </c>
       <c r="E386">
-        <v>4.418975825661139</v>
+        <v>638.0199525099152</v>
       </c>
       <c r="F386">
         <v>69.82059595410675</v>
@@ -16244,13 +16244,13 @@
     </row>
     <row r="387" spans="1:13">
       <c r="A387">
-        <v>72.18760627334177</v>
+        <v>131.0545540912989</v>
       </c>
       <c r="B387">
-        <v>107.3330383687606</v>
+        <v>153.4372916275346</v>
       </c>
       <c r="C387">
-        <v>0.4040116435524579</v>
+        <v>0.4610028818618054</v>
       </c>
       <c r="D387">
         <v>81.44121658044318</v>
@@ -16338,7 +16338,7 @@
         <v>251.7092761975665</v>
       </c>
       <c r="E389">
-        <v>4.418975825661139</v>
+        <v>553.1139130176678</v>
       </c>
       <c r="F389">
         <v>-76.64495262290311</v>
@@ -16420,7 +16420,7 @@
         <v>583.3003593874653</v>
       </c>
       <c r="E391">
-        <v>4.418975825661139</v>
+        <v>659.2304840011714</v>
       </c>
       <c r="F391">
         <v>-272.9758258481895</v>
@@ -16505,7 +16505,7 @@
         <v>-5.268374322448945</v>
       </c>
       <c r="F393">
-        <v>162.7373001958887</v>
+        <v>673.0632139052027</v>
       </c>
       <c r="G393">
         <v>25.97283399925662</v>
@@ -16593,7 +16593,7 @@
         <v>32.4450045437742</v>
       </c>
       <c r="H395">
-        <v>5.458789728540561</v>
+        <v>7.512895550400081</v>
       </c>
       <c r="I395">
         <v>52.00613327468918</v>
@@ -16663,7 +16663,7 @@
         <v>0.4163541597967352</v>
       </c>
       <c r="D397">
-        <v>265.7861585436627</v>
+        <v>839.8397020971694</v>
       </c>
       <c r="E397">
         <v>-4.021856180536649</v>
@@ -16716,7 +16716,7 @@
         <v>34.95379999440872</v>
       </c>
       <c r="H398">
-        <v>5.458789728540561</v>
+        <v>7.635364192545748</v>
       </c>
       <c r="I398">
         <v>52.00613327468918</v>
@@ -16763,7 +16763,7 @@
         <v>52.00613327468918</v>
       </c>
       <c r="J399">
-        <v>48.58680318337443</v>
+        <v>40.06769647363731</v>
       </c>
       <c r="K399">
         <v>4.855235647121073</v>
@@ -16795,7 +16795,7 @@
         <v>138.3208701296793</v>
       </c>
       <c r="G400">
-        <v>31.25852150080629</v>
+        <v>40.26447789469626</v>
       </c>
       <c r="H400">
         <v>5.261423505516434</v>
@@ -16877,7 +16877,7 @@
         <v>149.3812164870839</v>
       </c>
       <c r="G402">
-        <v>31.25852150080629</v>
+        <v>43.91976100632964</v>
       </c>
       <c r="H402">
         <v>5.494596549525805</v>
@@ -16918,7 +16918,7 @@
         <v>137.240961302258</v>
       </c>
       <c r="G403">
-        <v>31.25852150080629</v>
+        <v>40.09863338488773</v>
       </c>
       <c r="H403">
         <v>5.04367160423689</v>
@@ -17029,7 +17029,7 @@
         <v>110.4610772429055</v>
       </c>
       <c r="C406">
-        <v>0.4040116435524579</v>
+        <v>0.3431016653587509</v>
       </c>
       <c r="D406">
         <v>531.3864981472294</v>
@@ -17067,7 +17067,7 @@
         <v>96.89149966494492</v>
       </c>
       <c r="B407">
-        <v>107.3330383687606</v>
+        <v>145.2497308486042</v>
       </c>
       <c r="C407">
         <v>0.4524250046913995</v>
@@ -17290,7 +17290,7 @@
         <v>32.90499509579751</v>
       </c>
       <c r="H412">
-        <v>5.458789728540561</v>
+        <v>3.737071878713327</v>
       </c>
       <c r="I412">
         <v>52.00613327468918</v>
@@ -17322,7 +17322,7 @@
         <v>555.3683639299252</v>
       </c>
       <c r="E413">
-        <v>4.418975825661139</v>
+        <v>645.7844881134137</v>
       </c>
       <c r="F413">
         <v>225.0582901901231</v>
@@ -17439,13 +17439,13 @@
         <v>96.70282829382165</v>
       </c>
       <c r="C416">
-        <v>0.4040116435524579</v>
+        <v>0.340567059519909</v>
       </c>
       <c r="D416">
         <v>612.9289809979266</v>
       </c>
       <c r="E416">
-        <v>4.418975825661139</v>
+        <v>640</v>
       </c>
       <c r="F416">
         <v>502.0389550458435</v>
@@ -17486,7 +17486,7 @@
         <v>568.3502764932387</v>
       </c>
       <c r="E417">
-        <v>4.418975825661139</v>
+        <v>638.6126244954311</v>
       </c>
       <c r="F417">
         <v>201.3217322255151</v>
@@ -17515,10 +17515,10 @@
     </row>
     <row r="418" spans="1:13">
       <c r="A418">
-        <v>72.18760627334177</v>
+        <v>122.5814010919996</v>
       </c>
       <c r="B418">
-        <v>107.3330383687606</v>
+        <v>154.5232098510108</v>
       </c>
       <c r="C418">
         <v>0.443680540400026</v>
@@ -17615,13 +17615,13 @@
         <v>159.8844987958424</v>
       </c>
       <c r="G420">
-        <v>31.25852150080629</v>
+        <v>42.22223903440133</v>
       </c>
       <c r="H420">
         <v>5.654432769275125</v>
       </c>
       <c r="I420">
-        <v>52.00613327468918</v>
+        <v>60</v>
       </c>
       <c r="J420">
         <v>54</v>
@@ -17685,13 +17685,13 @@
         <v>103.9205764636345</v>
       </c>
       <c r="C422">
-        <v>0.4040116435524579</v>
+        <v>0.3325556655548144</v>
       </c>
       <c r="D422">
         <v>598.5650743591798</v>
       </c>
       <c r="E422">
-        <v>4.418975825661139</v>
+        <v>640</v>
       </c>
       <c r="F422">
         <v>453.0933625530649</v>
@@ -17732,7 +17732,7 @@
         <v>709.3258944067784</v>
       </c>
       <c r="E423">
-        <v>4.418975825661139</v>
+        <v>640</v>
       </c>
       <c r="F423">
         <v>455.6439481327884</v>
@@ -17791,7 +17791,7 @@
         <v>48.58680318337443</v>
       </c>
       <c r="K424">
-        <v>4.855235647121073</v>
+        <v>12.08511586630244</v>
       </c>
       <c r="L424">
         <v>6.076376021285393</v>
@@ -17808,13 +17808,13 @@
         <v>107.4939703927908</v>
       </c>
       <c r="C425">
-        <v>0.4040116435524579</v>
+        <v>0.3210920538833307</v>
       </c>
       <c r="D425">
-        <v>265.7861585436627</v>
+        <v>861.1608304330022</v>
       </c>
       <c r="E425">
-        <v>4.418975825661139</v>
+        <v>576.7020881497371</v>
       </c>
       <c r="F425">
         <v>163.4155491081374</v>
@@ -17873,7 +17873,7 @@
         <v>51.94556596456244</v>
       </c>
       <c r="K426">
-        <v>4.855235647121073</v>
+        <v>13.35758810743685</v>
       </c>
       <c r="L426">
         <v>11.85521811499791</v>
@@ -17884,7 +17884,7 @@
     </row>
     <row r="427" spans="1:13">
       <c r="A427">
-        <v>72.18760627334177</v>
+        <v>118.8872991334404</v>
       </c>
       <c r="B427">
         <v>140.6506820891702</v>
@@ -17990,7 +17990,7 @@
         <v>6.855841427365927</v>
       </c>
       <c r="I429">
-        <v>52.00613327468918</v>
+        <v>59.97635457235665</v>
       </c>
       <c r="J429">
         <v>48.58680318337443</v>
@@ -18060,7 +18060,7 @@
         <v>571.4179918340207</v>
       </c>
       <c r="E431">
-        <v>4.418975825661139</v>
+        <v>658.715364925883</v>
       </c>
       <c r="F431">
         <v>424.0837784170445</v>
@@ -18107,7 +18107,7 @@
         <v>155.8568784874729</v>
       </c>
       <c r="G432">
-        <v>31.25852150080629</v>
+        <v>41.99709697184417</v>
       </c>
       <c r="H432">
         <v>5.501285754186563</v>
@@ -18171,10 +18171,10 @@
     </row>
     <row r="434" spans="1:13">
       <c r="A434">
-        <v>72.18760627334177</v>
+        <v>119.571049144983</v>
       </c>
       <c r="B434">
-        <v>107.3330383687606</v>
+        <v>152.4199528861026</v>
       </c>
       <c r="C434">
         <v>0.4429623051631209</v>
@@ -18265,7 +18265,7 @@
         <v>695.4525375075425</v>
       </c>
       <c r="E436">
-        <v>4.418975825661139</v>
+        <v>639.352070801992</v>
       </c>
       <c r="F436">
         <v>169.3887873450196</v>
@@ -18388,7 +18388,7 @@
         <v>239.3776743155602</v>
       </c>
       <c r="E439">
-        <v>4.418975825661139</v>
+        <v>570.3694743742381</v>
       </c>
       <c r="F439">
         <v>-38.56923313740889</v>
@@ -18502,7 +18502,7 @@
         <v>97.02987150458459</v>
       </c>
       <c r="B442">
-        <v>107.3330383687606</v>
+        <v>142.1973767638887</v>
       </c>
       <c r="C442">
         <v>0.4099248975089577</v>
@@ -18602,7 +18602,7 @@
         <v>30.36279433810531</v>
       </c>
       <c r="H444">
-        <v>5.458789728540561</v>
+        <v>7.557321870327971</v>
       </c>
       <c r="I444">
         <v>52.866368039657</v>
@@ -18675,7 +18675,7 @@
         <v>593.8764220662529</v>
       </c>
       <c r="E446">
-        <v>4.418975825661139</v>
+        <v>635.7066564965359</v>
       </c>
       <c r="F446">
         <v>241.9450241688448</v>
@@ -18731,7 +18731,7 @@
         <v>52.00613327468918</v>
       </c>
       <c r="J447">
-        <v>48.58680318337443</v>
+        <v>40.2064374065752</v>
       </c>
       <c r="K447">
         <v>4.855235647121073</v>
@@ -18839,7 +18839,7 @@
         <v>292.0524250818765</v>
       </c>
       <c r="E450">
-        <v>4.418975825661139</v>
+        <v>521.7702419419101</v>
       </c>
       <c r="F450">
         <v>116.5417050760074</v>
@@ -18909,10 +18909,10 @@
     </row>
     <row r="452" spans="1:13">
       <c r="A452">
-        <v>72.18760627334177</v>
+        <v>108.855693549094</v>
       </c>
       <c r="B452">
-        <v>107.3330383687606</v>
+        <v>148.3272960667922</v>
       </c>
       <c r="C452">
         <v>0.3904411057623226</v>
@@ -19167,10 +19167,10 @@
         <v>593.3491096384632</v>
       </c>
       <c r="E458">
-        <v>4.418975825661139</v>
+        <v>635.774480368881</v>
       </c>
       <c r="F458">
-        <v>162.7373001958887</v>
+        <v>-364.2448814131404</v>
       </c>
       <c r="G458">
         <v>29.0998785507868</v>
@@ -19199,7 +19199,7 @@
         <v>95.27890737086216</v>
       </c>
       <c r="B459">
-        <v>107.3330383687606</v>
+        <v>149.32227630623</v>
       </c>
       <c r="C459">
         <v>0.417884737358983</v>
@@ -19457,7 +19457,7 @@
         <v>0</v>
       </c>
       <c r="F465">
-        <v>162.7373001958887</v>
+        <v>699.4368544040196</v>
       </c>
       <c r="G465">
         <v>29.11324040398585</v>
@@ -19483,10 +19483,10 @@
     </row>
     <row r="466" spans="1:13">
       <c r="A466">
-        <v>72.18760627334177</v>
+        <v>131.0271091761572</v>
       </c>
       <c r="B466">
-        <v>107.3330383687606</v>
+        <v>153.8933349967861</v>
       </c>
       <c r="C466">
         <v>0.4590488365335046</v>
@@ -19533,7 +19533,7 @@
         <v>0.4012042933876555</v>
       </c>
       <c r="D467">
-        <v>265.7861585436627</v>
+        <v>-280.3956783459745</v>
       </c>
       <c r="E467">
         <v>76.30230246391507</v>
@@ -19949,7 +19949,7 @@
         <v>4.418975825661139</v>
       </c>
       <c r="F477">
-        <v>162.7373001958887</v>
+        <v>631.8213933527117</v>
       </c>
       <c r="G477">
         <v>31.23650216625307</v>
@@ -20131,7 +20131,7 @@
         <v>9.97657518831493</v>
       </c>
       <c r="L481">
-        <v>6.076376021285393</v>
+        <v>21.13890669730675</v>
       </c>
       <c r="M481">
         <v>2</v>
@@ -20236,7 +20236,7 @@
         <v>468.0995658190461</v>
       </c>
       <c r="F484">
-        <v>162.7373001958887</v>
+        <v>-391.7132545080301</v>
       </c>
       <c r="G484">
         <v>27.51297772688464</v>
@@ -20283,7 +20283,7 @@
         <v>30.50711717325583</v>
       </c>
       <c r="H485">
-        <v>5.458789728540561</v>
+        <v>7.71668375856185</v>
       </c>
       <c r="I485">
         <v>52.00613327468918</v>
@@ -20377,7 +20377,7 @@
         <v>10.53780074484321</v>
       </c>
       <c r="L487">
-        <v>6.076376021285393</v>
+        <v>16.43419905178462</v>
       </c>
       <c r="M487">
         <v>2</v>
@@ -20397,7 +20397,7 @@
         <v>589.9625143377756</v>
       </c>
       <c r="E488">
-        <v>4.418975825661139</v>
+        <v>650.3104067054628</v>
       </c>
       <c r="F488">
         <v>192.1679151693994</v>
@@ -20459,7 +20459,7 @@
         <v>11.36340119645335</v>
       </c>
       <c r="L489">
-        <v>6.406443934348403</v>
+        <v>17.61768716005944</v>
       </c>
       <c r="M489">
         <v>3</v>
@@ -20476,13 +20476,13 @@
         <v>0.4056882045987373</v>
       </c>
       <c r="D490">
-        <v>141.4668223791776</v>
+        <v>828.9593768079716</v>
       </c>
       <c r="E490">
         <v>222.1510688242746</v>
       </c>
       <c r="F490">
-        <v>259.2908148738858</v>
+        <v>583.7961595127744</v>
       </c>
       <c r="G490">
         <v>16.06924724239796</v>
@@ -20517,19 +20517,19 @@
         <v>0.4104642559026249</v>
       </c>
       <c r="D491">
-        <v>141.4668223791776</v>
+        <v>713.588070677956</v>
       </c>
       <c r="E491">
-        <v>4.294069914710827</v>
+        <v>707.5592752971778</v>
       </c>
       <c r="F491">
         <v>476.7180397923635</v>
       </c>
       <c r="G491">
-        <v>27.86700095427242</v>
+        <v>3.679986967500167</v>
       </c>
       <c r="H491">
-        <v>6.367530976500881</v>
+        <v>0.51705431613065</v>
       </c>
       <c r="I491">
         <v>51.65240133469982</v>
@@ -20602,7 +20602,7 @@
         <v>202.1465286549696</v>
       </c>
       <c r="E493">
-        <v>4.294069914710827</v>
+        <v>649.2415644744553</v>
       </c>
       <c r="F493">
         <v>523.5322815407062</v>
@@ -20804,19 +20804,19 @@
         <v>0.4200888860450429</v>
       </c>
       <c r="D498">
-        <v>141.4668223791776</v>
+        <v>793.3947652409798</v>
       </c>
       <c r="E498">
-        <v>4.294069914710827</v>
+        <v>838.882861472985</v>
       </c>
       <c r="F498">
         <v>475.6057725609293</v>
       </c>
       <c r="G498">
-        <v>27.86700095427242</v>
+        <v>3.643553439038915</v>
       </c>
       <c r="H498">
-        <v>6.367530976500881</v>
+        <v>0.6388809631052244</v>
       </c>
       <c r="I498">
         <v>51.65240133469982</v>
@@ -20927,10 +20927,10 @@
         <v>0.4319222827105349</v>
       </c>
       <c r="D501">
-        <v>141.4668223791776</v>
+        <v>617.8597795302389</v>
       </c>
       <c r="E501">
-        <v>4.294069914710827</v>
+        <v>624.9335292926938</v>
       </c>
       <c r="F501">
         <v>492.8453662920405</v>
@@ -21012,7 +21012,7 @@
         <v>259.20320043847</v>
       </c>
       <c r="E503">
-        <v>4.294069914710827</v>
+        <v>623.960937769695</v>
       </c>
       <c r="F503">
         <v>482.9355594759158</v>
@@ -21378,13 +21378,13 @@
         <v>0.4477901437164928</v>
       </c>
       <c r="D512">
-        <v>141.4668223791776</v>
+        <v>634.5716415463344</v>
       </c>
       <c r="E512">
         <v>93.42124966478809</v>
       </c>
       <c r="F512">
-        <v>259.2908148738858</v>
+        <v>548.7226279619236</v>
       </c>
       <c r="G512">
         <v>24.86663466387816</v>
@@ -21422,7 +21422,7 @@
         <v>203.8108279341445</v>
       </c>
       <c r="E513">
-        <v>4.294069914710827</v>
+        <v>577.1527239099262</v>
       </c>
       <c r="F513">
         <v>438.9908186426802</v>
@@ -21829,19 +21829,19 @@
         <v>0.4332125572057404</v>
       </c>
       <c r="D523">
-        <v>141.4668223791776</v>
+        <v>589.4306157033391</v>
       </c>
       <c r="E523">
-        <v>4.294069914710827</v>
+        <v>978.0868704025755</v>
       </c>
       <c r="F523">
-        <v>259.2908148738858</v>
+        <v>566.1538324232879</v>
       </c>
       <c r="G523">
-        <v>27.86700095427242</v>
+        <v>3.769627736380536</v>
       </c>
       <c r="H523">
-        <v>6.367530976500881</v>
+        <v>0.7839055743675487</v>
       </c>
       <c r="I523">
         <v>51.65240133469982</v>
@@ -22096,7 +22096,7 @@
         <v>47.25988384519468</v>
       </c>
       <c r="K529">
-        <v>6.046581413043818</v>
+        <v>14.32575360651025</v>
       </c>
       <c r="L529">
         <v>13.05536288240967</v>
@@ -22198,19 +22198,19 @@
         <v>0.4082206117802988</v>
       </c>
       <c r="D532">
-        <v>141.4668223791776</v>
+        <v>827.9127767378063</v>
       </c>
       <c r="E532">
-        <v>4.294069914710827</v>
+        <v>847.0419211505312</v>
       </c>
       <c r="F532">
         <v>523.0943986400639</v>
       </c>
       <c r="G532">
-        <v>27.86700095427242</v>
+        <v>3.867381345768575</v>
       </c>
       <c r="H532">
-        <v>6.367530976500881</v>
+        <v>0.7326200132648288</v>
       </c>
       <c r="I532">
         <v>52.79802728491219</v>
@@ -22230,16 +22230,16 @@
     </row>
     <row r="533" spans="1:13">
       <c r="A533">
-        <v>73.99244620150961</v>
+        <v>89.3953461151881</v>
       </c>
       <c r="B533">
-        <v>103.3063830296038</v>
+        <v>126.9711408626508</v>
       </c>
       <c r="C533">
         <v>0.4226332907517781</v>
       </c>
       <c r="D533">
-        <v>141.4668223791776</v>
+        <v>604.8265511339973</v>
       </c>
       <c r="E533">
         <v>275.0757473205101</v>
@@ -22274,10 +22274,10 @@
         <v>67.53840852308502</v>
       </c>
       <c r="B534">
-        <v>103.3063830296038</v>
+        <v>134.8745264817539</v>
       </c>
       <c r="C534">
-        <v>0.4185161459292889</v>
+        <v>0.3369558956861193</v>
       </c>
       <c r="D534">
         <v>115</v>
@@ -22444,13 +22444,13 @@
         <v>0.4473723988510308</v>
       </c>
       <c r="D538">
-        <v>141.4668223791776</v>
+        <v>680.8181081321735</v>
       </c>
       <c r="E538">
         <v>300.9411169810171</v>
       </c>
       <c r="F538">
-        <v>259.2908148738858</v>
+        <v>534.8249337858022</v>
       </c>
       <c r="G538">
         <v>24.21710734197754</v>
@@ -22567,19 +22567,19 @@
         <v>0.4192290371216027</v>
       </c>
       <c r="D541">
-        <v>141.4668223791776</v>
+        <v>564.5251253709374</v>
       </c>
       <c r="E541">
-        <v>4.294069914710827</v>
+        <v>799.4636218268134</v>
       </c>
       <c r="F541">
-        <v>259.2908148738858</v>
+        <v>607.5148217308069</v>
       </c>
       <c r="G541">
-        <v>27.86700095427242</v>
+        <v>12.24381940707086</v>
       </c>
       <c r="H541">
-        <v>6.367530976500881</v>
+        <v>1.49813257077583</v>
       </c>
       <c r="I541">
         <v>51.65240133469982</v>
@@ -22684,7 +22684,7 @@
         <v>70.33103802178421</v>
       </c>
       <c r="B544">
-        <v>103.3063830296038</v>
+        <v>125.8104785585584</v>
       </c>
       <c r="C544">
         <v>0.3885389228362487</v>
@@ -22781,10 +22781,10 @@
         <v>95</v>
       </c>
       <c r="G546">
-        <v>27.86700095427242</v>
+        <v>12.23670510660428</v>
       </c>
       <c r="H546">
-        <v>6.367530976500881</v>
+        <v>9.788617371534427</v>
       </c>
       <c r="I546">
         <v>51.65240133469982</v>
@@ -22854,7 +22854,7 @@
         <v>0.429759286214972</v>
       </c>
       <c r="D548">
-        <v>141.4668223791776</v>
+        <v>622.0670777281272</v>
       </c>
       <c r="E548">
         <v>199.4711533991127</v>
@@ -22892,7 +22892,7 @@
         <v>103.6912201293284</v>
       </c>
       <c r="C549">
-        <v>0.4185161459292889</v>
+        <v>0.479292999118463</v>
       </c>
       <c r="D549">
         <v>119.4993841037061</v>
@@ -23021,7 +23021,7 @@
         <v>503.9408224948182</v>
       </c>
       <c r="E552">
-        <v>4.294069914710827</v>
+        <v>619.1413533234826</v>
       </c>
       <c r="F552">
         <v>489.1411600465154</v>
@@ -23077,13 +23077,13 @@
         <v>46.02</v>
       </c>
       <c r="J553">
-        <v>52.46960936323064</v>
+        <v>42.13</v>
       </c>
       <c r="K553">
-        <v>6.046581413043818</v>
+        <v>16</v>
       </c>
       <c r="L553">
-        <v>6.406443934348403</v>
+        <v>19</v>
       </c>
       <c r="M553">
         <v>3</v>
@@ -23135,7 +23135,7 @@
         <v>82.88256746761334</v>
       </c>
       <c r="B555">
-        <v>103.3063830296038</v>
+        <v>126.2374169044103</v>
       </c>
       <c r="C555">
         <v>0.4189588839055939</v>
@@ -23469,10 +23469,10 @@
         <v>0.4328849865058364</v>
       </c>
       <c r="D563">
-        <v>141.4668223791776</v>
+        <v>620.788704317885</v>
       </c>
       <c r="E563">
-        <v>4.294069914710827</v>
+        <v>658.2417573879901</v>
       </c>
       <c r="F563">
         <v>496.274412615587</v>
@@ -23548,7 +23548,7 @@
         <v>121.5840021080121</v>
       </c>
       <c r="C565">
-        <v>0.4185161459292889</v>
+        <v>0.3481546556052632</v>
       </c>
       <c r="D565">
         <v>368.8257706467713</v>
@@ -23627,7 +23627,7 @@
         <v>87.86934390197307</v>
       </c>
       <c r="B567">
-        <v>103.3063830296038</v>
+        <v>130.1790578234317</v>
       </c>
       <c r="C567">
         <v>0.4226078772025572</v>
@@ -23648,7 +23648,7 @@
         <v>6.831205027591032</v>
       </c>
       <c r="I567">
-        <v>51.65240133469982</v>
+        <v>42.54381133164378</v>
       </c>
       <c r="J567">
         <v>52.46960936323064</v>
@@ -23709,7 +23709,7 @@
         <v>80.08953646120843</v>
       </c>
       <c r="B569">
-        <v>103.3063830296038</v>
+        <v>126.570057299906</v>
       </c>
       <c r="C569">
         <v>0.4090756996179145</v>
@@ -23870,7 +23870,7 @@
     </row>
     <row r="573" spans="1:13">
       <c r="A573">
-        <v>73.99244620150961</v>
+        <v>104.9585480227516</v>
       </c>
       <c r="B573">
         <v>112.7974290913533</v>
@@ -23964,7 +23964,7 @@
         <v>529.2623977524855</v>
       </c>
       <c r="E575">
-        <v>4.294069914710827</v>
+        <v>617.6327741785738</v>
       </c>
       <c r="F575">
         <v>483.6549310040245</v>
@@ -24081,7 +24081,7 @@
         <v>86</v>
       </c>
       <c r="C578">
-        <v>0.4185161459292889</v>
+        <v>0.4762484774665043</v>
       </c>
       <c r="D578">
         <v>142.94</v>
@@ -24125,16 +24125,16 @@
         <v>0.4234420237871352</v>
       </c>
       <c r="D579">
-        <v>141.4668223791776</v>
+        <v>602.0537174057428</v>
       </c>
       <c r="E579">
-        <v>4.294069914710827</v>
+        <v>648.6156920815245</v>
       </c>
       <c r="F579">
         <v>521.8613781745347</v>
       </c>
       <c r="G579">
-        <v>27.86700095427242</v>
+        <v>7.080805396465927</v>
       </c>
       <c r="H579">
         <v>3.90792501395045</v>
@@ -24345,7 +24345,7 @@
         <v>6.499924414676025</v>
       </c>
       <c r="I584">
-        <v>51.65240133469982</v>
+        <v>42.44837208767768</v>
       </c>
       <c r="J584">
         <v>52.46960936323064</v>
@@ -24456,7 +24456,7 @@
         <v>542.1728998781011</v>
       </c>
       <c r="E587">
-        <v>4.294069914710827</v>
+        <v>599.878200984777</v>
       </c>
       <c r="F587">
         <v>522.3654501293838</v>
@@ -24491,7 +24491,7 @@
         <v>86</v>
       </c>
       <c r="C588">
-        <v>0.4185161459292889</v>
+        <v>0.4762484774665043</v>
       </c>
       <c r="D588">
         <v>142.94</v>
@@ -24535,19 +24535,19 @@
         <v>0.4152483072981035</v>
       </c>
       <c r="D589">
-        <v>141.4668223791776</v>
+        <v>663.3051737992605</v>
       </c>
       <c r="E589">
-        <v>4.294069914710827</v>
+        <v>892.9712247659741</v>
       </c>
       <c r="F589">
-        <v>259.2908148738858</v>
+        <v>570.6635622676464</v>
       </c>
       <c r="G589">
-        <v>27.86700095427242</v>
+        <v>3.844029571664691</v>
       </c>
       <c r="H589">
-        <v>6.367530976500881</v>
+        <v>0.7587183649705281</v>
       </c>
       <c r="I589">
         <v>52.72188876125406</v>
@@ -24772,7 +24772,7 @@
     </row>
     <row r="595" spans="1:13">
       <c r="A595">
-        <v>73.99244620150961</v>
+        <v>93.24898039906462</v>
       </c>
       <c r="B595">
         <v>117.4843548577877</v>
@@ -24781,13 +24781,13 @@
         <v>0.4446431534827682</v>
       </c>
       <c r="D595">
-        <v>141.4668223791776</v>
+        <v>711.32902575721</v>
       </c>
       <c r="E595">
         <v>228.0953504953701</v>
       </c>
       <c r="F595">
-        <v>259.2908148738858</v>
+        <v>572.3157452870702</v>
       </c>
       <c r="G595">
         <v>28.14972529094232</v>
@@ -24863,7 +24863,7 @@
         <v>0.4047519425817838</v>
       </c>
       <c r="D597">
-        <v>141.4668223791776</v>
+        <v>617.9228279464686</v>
       </c>
       <c r="E597">
         <v>468.5464910449818</v>
@@ -25150,13 +25150,13 @@
         <v>0.4283565159422577</v>
       </c>
       <c r="D604">
-        <v>141.4668223791776</v>
+        <v>617.4406547660001</v>
       </c>
       <c r="E604">
         <v>324.2092842236484</v>
       </c>
       <c r="F604">
-        <v>259.2908148738858</v>
+        <v>534.9095674940492</v>
       </c>
       <c r="G604">
         <v>27.64824122523157</v>
@@ -25194,7 +25194,7 @@
         <v>490.951435922924</v>
       </c>
       <c r="E605">
-        <v>4.294069914710827</v>
+        <v>619.4102740727913</v>
       </c>
       <c r="F605">
         <v>495.953893921721</v>
@@ -25250,13 +25250,13 @@
         <v>46.02</v>
       </c>
       <c r="J606">
-        <v>52.46960936323064</v>
+        <v>42.13</v>
       </c>
       <c r="K606">
-        <v>6.046581413043818</v>
+        <v>16</v>
       </c>
       <c r="L606">
-        <v>6.406443934348403</v>
+        <v>19</v>
       </c>
       <c r="M606">
         <v>3</v>
@@ -25440,7 +25440,7 @@
         <v>113.4172771122082</v>
       </c>
       <c r="E611">
-        <v>4.294069914710827</v>
+        <v>755.9544316998662</v>
       </c>
       <c r="F611">
         <v>510.4486132084138</v>
@@ -25534,16 +25534,16 @@
         <v>5.107495261934155</v>
       </c>
       <c r="I613">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J613">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K613">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L613">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M613">
         <v>4</v>
@@ -25575,10 +25575,10 @@
         <v>7.37</v>
       </c>
       <c r="I614">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J614">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K614">
         <v>9.53202283602649</v>
@@ -25616,16 +25616,16 @@
         <v>4.72</v>
       </c>
       <c r="I615">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J615">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K615">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L615">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M615">
         <v>4</v>
@@ -25657,10 +25657,10 @@
         <v>7.37</v>
       </c>
       <c r="I616">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J616">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K616">
         <v>9.347226965770199</v>
@@ -25698,16 +25698,16 @@
         <v>5.355392512053901</v>
       </c>
       <c r="I617">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J617">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K617">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L617">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M617">
         <v>4</v>
@@ -25739,16 +25739,16 @@
         <v>5.849708452164649</v>
       </c>
       <c r="I618">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J618">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K618">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L618">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M618">
         <v>4</v>
@@ -25780,16 +25780,16 @@
         <v>5.422434087865325</v>
       </c>
       <c r="I619">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J619">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K619">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L619">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M619">
         <v>4</v>
@@ -25824,13 +25824,13 @@
         <v>49.39606823891221</v>
       </c>
       <c r="J620">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K620">
         <v>4.753532184862864</v>
       </c>
       <c r="L620">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M620">
         <v>4</v>
@@ -25868,7 +25868,7 @@
         <v>48</v>
       </c>
       <c r="K621">
-        <v>7.829152068159485</v>
+        <v>19.17456824558154</v>
       </c>
       <c r="L621">
         <v>16.58474126263748</v>
@@ -25912,7 +25912,7 @@
         <v>6.795948238406817</v>
       </c>
       <c r="L622">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M622">
         <v>4</v>
@@ -25944,16 +25944,16 @@
         <v>5.448403315328644</v>
       </c>
       <c r="I623">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J623">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K623">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L623">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M623">
         <v>4</v>
@@ -25991,10 +25991,10 @@
         <v>51.60572335275634</v>
       </c>
       <c r="K624">
-        <v>7.829152068159485</v>
+        <v>25.08939940974247</v>
       </c>
       <c r="L624">
-        <v>8.642203189343153</v>
+        <v>26.80860506213457</v>
       </c>
       <c r="M624">
         <v>4</v>
@@ -26002,7 +26002,7 @@
     </row>
     <row r="625" spans="1:13">
       <c r="A625">
-        <v>66.65383962108336</v>
+        <v>49.34639718490629</v>
       </c>
       <c r="B625">
         <v>93.67050978125587</v>
@@ -26026,10 +26026,10 @@
         <v>7.312790390038381</v>
       </c>
       <c r="I625">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J625">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K625">
         <v>6.277414239165012</v>
@@ -26046,19 +26046,19 @@
         <v>73.88536752912503</v>
       </c>
       <c r="B626">
-        <v>94.13106455174866</v>
+        <v>116.7009244948891</v>
       </c>
       <c r="C626">
         <v>0.4035793597517515</v>
       </c>
       <c r="D626">
-        <v>139.3744139557576</v>
+        <v>699.5930280281015</v>
       </c>
       <c r="E626">
         <v>-1.944589433206335</v>
       </c>
       <c r="F626">
-        <v>210.944022621558</v>
+        <v>532.7482860244969</v>
       </c>
       <c r="G626">
         <v>34.75418664369099</v>
@@ -26105,7 +26105,7 @@
         <v>37.28265014005907</v>
       </c>
       <c r="H627">
-        <v>5.949989798522349</v>
+        <v>9.007323145747346</v>
       </c>
       <c r="I627">
         <v>48.70378377770481</v>
@@ -26137,7 +26137,7 @@
         <v>162.1671573389956</v>
       </c>
       <c r="E628">
-        <v>0.0152088879910284</v>
+        <v>546.7358548229837</v>
       </c>
       <c r="F628">
         <v>393.1474494166839</v>
@@ -26172,16 +26172,16 @@
         <v>77.95273903762191</v>
       </c>
       <c r="C629">
-        <v>0.404040404040404</v>
+        <v>0.468048317402174</v>
       </c>
       <c r="D629">
-        <v>139.3744139557576</v>
+        <v>641.2018106029884</v>
       </c>
       <c r="E629">
         <v>64.54308420011571</v>
       </c>
       <c r="F629">
-        <v>210.944022621558</v>
+        <v>523.3940171869641</v>
       </c>
       <c r="G629">
         <v>30.73754604974854</v>
@@ -26234,13 +26234,13 @@
         <v>51.43844766991053</v>
       </c>
       <c r="J630">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K630">
         <v>4.71030687885894</v>
       </c>
       <c r="L630">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M630">
         <v>4</v>
@@ -26272,10 +26272,10 @@
         <v>7.37</v>
       </c>
       <c r="I631">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J631">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K631">
         <v>9.150380679129112</v>
@@ -26354,16 +26354,16 @@
         <v>4.72</v>
       </c>
       <c r="I633">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J633">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K633">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L633">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M633">
         <v>4</v>
@@ -26380,13 +26380,13 @@
         <v>0.4199506049203079</v>
       </c>
       <c r="D634">
-        <v>139.3744139557576</v>
+        <v>602.6837863763312</v>
       </c>
       <c r="E634">
         <v>-20.70953252950283</v>
       </c>
       <c r="F634">
-        <v>210.944022621558</v>
+        <v>538.1501175479464</v>
       </c>
       <c r="G634">
         <v>35.06052865816944</v>
@@ -26395,16 +26395,16 @@
         <v>4.72</v>
       </c>
       <c r="I634">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J634">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K634">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L634">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M634">
         <v>4</v>
@@ -26433,16 +26433,16 @@
         <v>31.05028342360564</v>
       </c>
       <c r="H635">
-        <v>5.949989798522349</v>
+        <v>8.246877401283855</v>
       </c>
       <c r="I635">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J635">
-        <v>51.21850746350827</v>
+        <v>42.53243379156483</v>
       </c>
       <c r="K635">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L635">
         <v>5.625302962036089</v>
@@ -26477,16 +26477,16 @@
         <v>6.71815877905487</v>
       </c>
       <c r="I636">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J636">
         <v>47.82558684071633</v>
       </c>
       <c r="K636">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L636">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M636">
         <v>4</v>
@@ -26518,16 +26518,16 @@
         <v>4.831340321065551</v>
       </c>
       <c r="I637">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J637">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K637">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L637">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M637">
         <v>4</v>
@@ -26559,16 +26559,16 @@
         <v>5.510380665180214</v>
       </c>
       <c r="I638">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J638">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K638">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L638">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M638">
         <v>4</v>
@@ -26600,16 +26600,16 @@
         <v>6.481190403345757</v>
       </c>
       <c r="I639">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J639">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K639">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L639">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M639">
         <v>4</v>
@@ -26650,7 +26650,7 @@
         <v>14.79468490681455</v>
       </c>
       <c r="L640">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M640">
         <v>4</v>
@@ -26667,13 +26667,13 @@
         <v>0.4284284966156037</v>
       </c>
       <c r="D641">
-        <v>139.3744139557576</v>
+        <v>688.7287524570316</v>
       </c>
       <c r="E641">
         <v>-35.64407087646116</v>
       </c>
       <c r="F641">
-        <v>210.944022621558</v>
+        <v>540.6246749179469</v>
       </c>
       <c r="G641">
         <v>34.63980846950371</v>
@@ -26685,7 +26685,7 @@
         <v>49.30870548094124</v>
       </c>
       <c r="J641">
-        <v>51.21850746350827</v>
+        <v>42.30186787542484</v>
       </c>
       <c r="K641">
         <v>6.371635005359564</v>
@@ -26708,13 +26708,13 @@
         <v>0.4094136242015696</v>
       </c>
       <c r="D642">
-        <v>139.3744139557576</v>
+        <v>578.2087298217946</v>
       </c>
       <c r="E642">
         <v>24.77592360997276</v>
       </c>
       <c r="F642">
-        <v>210.944022621558</v>
+        <v>531.5532496180713</v>
       </c>
       <c r="G642">
         <v>33.63865875281718</v>
@@ -26723,16 +26723,16 @@
         <v>4.616616485072366</v>
       </c>
       <c r="I642">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J642">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K642">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L642">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M642">
         <v>4</v>
@@ -26773,7 +26773,7 @@
         <v>7.270346362021417</v>
       </c>
       <c r="L643">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M643">
         <v>4</v>
@@ -26796,10 +26796,10 @@
         <v>-33.25549483405664</v>
       </c>
       <c r="F644">
-        <v>210.944022621558</v>
+        <v>513.7320346851421</v>
       </c>
       <c r="G644">
-        <v>29.48</v>
+        <v>40.06432960661665</v>
       </c>
       <c r="H644">
         <v>5.110638867822379</v>
@@ -26831,10 +26831,10 @@
         <v>0.4324904199969687</v>
       </c>
       <c r="D645">
-        <v>139.3744139557576</v>
+        <v>644.891474845107</v>
       </c>
       <c r="E645">
-        <v>0.0152088879910284</v>
+        <v>594.5263808970965</v>
       </c>
       <c r="F645">
         <v>357.4702534980204</v>
@@ -26913,7 +26913,7 @@
         <v>0.4022063665585826</v>
       </c>
       <c r="D647">
-        <v>139.3744139557576</v>
+        <v>674.0151253598642</v>
       </c>
       <c r="E647">
         <v>-15.22173849554069</v>
@@ -26972,13 +26972,13 @@
         <v>49.91256397448615</v>
       </c>
       <c r="J648">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K648">
         <v>5.635517131697368</v>
       </c>
       <c r="L648">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M648">
         <v>4</v>
@@ -26992,7 +26992,7 @@
         <v>80.72948758758521</v>
       </c>
       <c r="C649">
-        <v>0.404040404040404</v>
+        <v>0.4674291046686712</v>
       </c>
       <c r="D649">
         <v>556.172203413367</v>
@@ -27001,7 +27001,7 @@
         <v>26.16914862973264</v>
       </c>
       <c r="F649">
-        <v>210.944022621558</v>
+        <v>673.972215796158</v>
       </c>
       <c r="G649">
         <v>27.60692496428982</v>
@@ -27092,16 +27092,16 @@
         <v>4.989753233098265</v>
       </c>
       <c r="I651">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J651">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K651">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L651">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M651">
         <v>4</v>
@@ -27159,7 +27159,7 @@
         <v>0.3995969586827993</v>
       </c>
       <c r="D653">
-        <v>139.3744139557576</v>
+        <v>617.8980355933385</v>
       </c>
       <c r="E653">
         <v>-7.086179268721679</v>
@@ -27174,16 +27174,16 @@
         <v>5.027227919499881</v>
       </c>
       <c r="I653">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J653">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K653">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L653">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M653">
         <v>4</v>
@@ -27215,16 +27215,16 @@
         <v>5.246932031171795</v>
       </c>
       <c r="I654">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J654">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K654">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L654">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M654">
         <v>4</v>
@@ -27294,16 +27294,16 @@
         <v>32.67040618550246</v>
       </c>
       <c r="H656">
-        <v>5.949989798522349</v>
+        <v>9.330354458346633</v>
       </c>
       <c r="I656">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J656">
-        <v>51.21850746350827</v>
+        <v>42.32792692550483</v>
       </c>
       <c r="K656">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L656">
         <v>7.297897618317545</v>
@@ -27379,16 +27379,16 @@
         <v>6.916300160424092</v>
       </c>
       <c r="I658">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J658">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K658">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L658">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M658">
         <v>4</v>
@@ -27396,7 +27396,7 @@
     </row>
     <row r="659" spans="1:13">
       <c r="A659">
-        <v>66.65383962108336</v>
+        <v>50.2842113902704</v>
       </c>
       <c r="B659">
         <v>93.10659827655232</v>
@@ -27464,13 +27464,13 @@
         <v>56.05002218238692</v>
       </c>
       <c r="J660">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K660">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L660">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M660">
         <v>4</v>
@@ -27502,10 +27502,10 @@
         <v>5.0842739181347</v>
       </c>
       <c r="I661">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J661">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K661">
         <v>3.894448818992924</v>
@@ -27543,16 +27543,16 @@
         <v>4.95279194371484</v>
       </c>
       <c r="I662">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J662">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K662">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L662">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M662">
         <v>4</v>
@@ -27604,13 +27604,13 @@
         <v>80</v>
       </c>
       <c r="B664">
-        <v>94.13106455174866</v>
+        <v>118</v>
       </c>
       <c r="C664">
         <v>0.404040404040404</v>
       </c>
       <c r="D664">
-        <v>139.3744139557576</v>
+        <v>750.9271441534132</v>
       </c>
       <c r="E664">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>5.093380913575022</v>
       </c>
       <c r="I665">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J665">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K665">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L665">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M665">
         <v>4</v>
@@ -27757,7 +27757,7 @@
         <v>8.898008562112162</v>
       </c>
       <c r="L667">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M667">
         <v>4</v>
@@ -27789,16 +27789,16 @@
         <v>5.977154241273078</v>
       </c>
       <c r="I668">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J668">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K668">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L668">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M668">
         <v>4</v>
@@ -27812,7 +27812,7 @@
         <v>74.99931735951307</v>
       </c>
       <c r="C669">
-        <v>0.404040404040404</v>
+        <v>0.4642437831510596</v>
       </c>
       <c r="D669">
         <v>231.3978973174848</v>
@@ -27821,7 +27821,7 @@
         <v>178.1512307652925</v>
       </c>
       <c r="F669">
-        <v>210.944022621558</v>
+        <v>575.2070088205051</v>
       </c>
       <c r="G669">
         <v>31.47994262994794</v>
@@ -27847,7 +27847,7 @@
     </row>
     <row r="670" spans="1:13">
       <c r="A670">
-        <v>66.65383962108336</v>
+        <v>50.69583259571144</v>
       </c>
       <c r="B670">
         <v>85.84696479396945</v>
@@ -27888,7 +27888,7 @@
     </row>
     <row r="671" spans="1:13">
       <c r="A671">
-        <v>66.65383962108336</v>
+        <v>49.75944052365417</v>
       </c>
       <c r="B671">
         <v>84.09603198816569</v>
@@ -27918,10 +27918,10 @@
         <v>51.41013832584228</v>
       </c>
       <c r="K671">
-        <v>7.829152068159485</v>
+        <v>22.27702501539944</v>
       </c>
       <c r="L671">
-        <v>8.642203189343153</v>
+        <v>21.78321952836495</v>
       </c>
       <c r="M671">
         <v>4</v>
@@ -27994,10 +27994,10 @@
         <v>7.37</v>
       </c>
       <c r="I673">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J673">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K673">
         <v>9.13792439777202</v>
@@ -28082,10 +28082,10 @@
         <v>51.2097404860387</v>
       </c>
       <c r="K675">
-        <v>7.829152068159485</v>
+        <v>25.19534864884228</v>
       </c>
       <c r="L675">
-        <v>8.642203189343153</v>
+        <v>26.84562698010192</v>
       </c>
       <c r="M675">
         <v>4</v>
@@ -28099,16 +28099,16 @@
         <v>77.99236889598134</v>
       </c>
       <c r="C676">
-        <v>0.404040404040404</v>
+        <v>0.4631672878242062</v>
       </c>
       <c r="D676">
-        <v>139.3744139557576</v>
+        <v>699.9444736579831</v>
       </c>
       <c r="E676">
         <v>65.86450820078774</v>
       </c>
       <c r="F676">
-        <v>210.944022621558</v>
+        <v>649.4778034521928</v>
       </c>
       <c r="G676">
         <v>30.23182048508619</v>
@@ -28117,7 +28117,7 @@
         <v>6.873886286777576</v>
       </c>
       <c r="I676">
-        <v>54.18891110517892</v>
+        <v>45.78463878817605</v>
       </c>
       <c r="J676">
         <v>51.66675836053652</v>
@@ -28140,13 +28140,13 @@
         <v>82.75658388724403</v>
       </c>
       <c r="C677">
-        <v>0.404040404040404</v>
+        <v>0.4670461701099261</v>
       </c>
       <c r="D677">
-        <v>139.3744139557576</v>
+        <v>629.8625502251843</v>
       </c>
       <c r="E677">
-        <v>0.0152088879910284</v>
+        <v>602.0008787372905</v>
       </c>
       <c r="F677">
         <v>474.060525967414</v>
@@ -28178,13 +28178,13 @@
         <v>80</v>
       </c>
       <c r="B678">
-        <v>94.13106455174866</v>
+        <v>118</v>
       </c>
       <c r="C678">
         <v>0.404040404040404</v>
       </c>
       <c r="D678">
-        <v>139.3744139557576</v>
+        <v>765.77552744835</v>
       </c>
       <c r="E678">
         <v>0</v>
@@ -28240,16 +28240,16 @@
         <v>4.311599948424416</v>
       </c>
       <c r="I679">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J679">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K679">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L679">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M679">
         <v>4</v>
@@ -28281,16 +28281,16 @@
         <v>6.536243401173411</v>
       </c>
       <c r="I680">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J680">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K680">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L680">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M680">
         <v>4</v>
@@ -28298,7 +28298,7 @@
     </row>
     <row r="681" spans="1:13">
       <c r="A681">
-        <v>66.65383962108336</v>
+        <v>90.79864189404095</v>
       </c>
       <c r="B681">
         <v>113.7927314166688</v>
@@ -28319,19 +28319,19 @@
         <v>29.48</v>
       </c>
       <c r="H681">
-        <v>5.949989798522349</v>
+        <v>5.956628535638426</v>
       </c>
       <c r="I681">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J681">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K681">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L681">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M681">
         <v>4</v>
@@ -28351,7 +28351,7 @@
         <v>340.3496595396608</v>
       </c>
       <c r="E682">
-        <v>0.0152088879910284</v>
+        <v>289.0770865028632</v>
       </c>
       <c r="F682">
         <v>321.363668324868</v>
@@ -28439,7 +28439,7 @@
         <v>362.7663365168911</v>
       </c>
       <c r="G684">
-        <v>29.48</v>
+        <v>38.7324008760117</v>
       </c>
       <c r="H684">
         <v>4.984797870358204</v>
@@ -28486,16 +28486,16 @@
         <v>4.937409700023543</v>
       </c>
       <c r="I685">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J685">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K685">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L685">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M685">
         <v>4</v>
@@ -28536,7 +28536,7 @@
         <v>8.3007166918949</v>
       </c>
       <c r="L686">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M686">
         <v>4</v>
@@ -28574,10 +28574,10 @@
         <v>51.74265091316603</v>
       </c>
       <c r="K687">
-        <v>7.829152068159485</v>
+        <v>25.35921642739789</v>
       </c>
       <c r="L687">
-        <v>8.642203189343153</v>
+        <v>26.91120766833435</v>
       </c>
       <c r="M687">
         <v>4</v>
@@ -28606,16 +28606,16 @@
         <v>34.81427391132711</v>
       </c>
       <c r="H688">
-        <v>5.949989798522349</v>
+        <v>8.439631222022635</v>
       </c>
       <c r="I688">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J688">
-        <v>51.21850746350827</v>
+        <v>43.38236976034227</v>
       </c>
       <c r="K688">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L688">
         <v>9.243177112758406</v>
@@ -28694,7 +28694,7 @@
         <v>58.55878173565665</v>
       </c>
       <c r="J690">
-        <v>51.21850746350827</v>
+        <v>58.64817541055093</v>
       </c>
       <c r="K690">
         <v>6.503525081837711</v>
@@ -28773,16 +28773,16 @@
         <v>5.220865573350093</v>
       </c>
       <c r="I692">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J692">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K692">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L692">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M692">
         <v>4</v>
@@ -28814,16 +28814,16 @@
         <v>4.816987571635388</v>
       </c>
       <c r="I693">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J693">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K693">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L693">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M693">
         <v>4</v>
@@ -28855,10 +28855,10 @@
         <v>6.761876508180185</v>
       </c>
       <c r="I694">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J694">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K694">
         <v>5.500769256385194</v>
@@ -28890,7 +28890,7 @@
         <v>208.1855941198627</v>
       </c>
       <c r="G695">
-        <v>29.48</v>
+        <v>44.06335676398977</v>
       </c>
       <c r="H695">
         <v>5.069572002782976</v>
@@ -28937,16 +28937,16 @@
         <v>5.124640092073276</v>
       </c>
       <c r="I696">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J696">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K696">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L696">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M696">
         <v>4</v>
@@ -28978,16 +28978,16 @@
         <v>5.798078610860558</v>
       </c>
       <c r="I697">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J697">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K697">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L697">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M697">
         <v>4</v>
@@ -29010,7 +29010,7 @@
         <v>-0.5444245029489281</v>
       </c>
       <c r="F698">
-        <v>210.944022621558</v>
+        <v>519.5370095154417</v>
       </c>
       <c r="G698">
         <v>30.17226405468094</v>
@@ -29101,16 +29101,16 @@
         <v>4.720521914533521</v>
       </c>
       <c r="I700">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J700">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K700">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L700">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M700">
         <v>4</v>
@@ -29118,10 +29118,10 @@
     </row>
     <row r="701" spans="1:13">
       <c r="A701">
-        <v>66.65383962108336</v>
+        <v>96.06554107626616</v>
       </c>
       <c r="B701">
-        <v>94.13106455174866</v>
+        <v>120.8091097546453</v>
       </c>
       <c r="C701">
         <v>0.4024419643101116</v>
@@ -29139,19 +29139,19 @@
         <v>29.48</v>
       </c>
       <c r="H701">
-        <v>5.949989798522349</v>
+        <v>5.956628535638426</v>
       </c>
       <c r="I701">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J701">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K701">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L701">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M701">
         <v>4</v>
@@ -29177,10 +29177,10 @@
         <v>147</v>
       </c>
       <c r="G702">
-        <v>29.48</v>
+        <v>37.99323893371282</v>
       </c>
       <c r="H702">
-        <v>5.949989798522349</v>
+        <v>8.790797090644235</v>
       </c>
       <c r="I702">
         <v>48.75097464379346</v>
@@ -29227,13 +29227,13 @@
         <v>51.62046700811154</v>
       </c>
       <c r="J703">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K703">
         <v>4.953795382752951</v>
       </c>
       <c r="L703">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M703">
         <v>4</v>
@@ -29268,13 +29268,13 @@
         <v>49.59808655667857</v>
       </c>
       <c r="J704">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K704">
         <v>8.734567976590403</v>
       </c>
       <c r="L704">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M704">
         <v>4</v>
@@ -29285,7 +29285,7 @@
         <v>74.66768860430868</v>
       </c>
       <c r="B705">
-        <v>94.13106455174866</v>
+        <v>114.0671792357521</v>
       </c>
       <c r="C705">
         <v>0.3966962444521694</v>
@@ -29306,16 +29306,16 @@
         <v>6.53</v>
       </c>
       <c r="I705">
-        <v>54.18891110517892</v>
+        <v>46</v>
       </c>
       <c r="J705">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K705">
         <v>10.9</v>
       </c>
       <c r="L705">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M705">
         <v>4</v>
@@ -29435,10 +29435,10 @@
         <v>51.22727444097784</v>
       </c>
       <c r="K708">
-        <v>7.829152068159485</v>
+        <v>18.76505078543698</v>
       </c>
       <c r="L708">
-        <v>8.642203189343153</v>
+        <v>26.70177864121993</v>
       </c>
       <c r="M708">
         <v>4</v>
@@ -29476,10 +29476,10 @@
         <v>51.81747220506372</v>
       </c>
       <c r="K709">
-        <v>7.829152068159485</v>
+        <v>24.76067673170901</v>
       </c>
       <c r="L709">
-        <v>8.642203189343153</v>
+        <v>28.98258406721152</v>
       </c>
       <c r="M709">
         <v>4</v>
@@ -29520,7 +29520,7 @@
         <v>5.303216060467148</v>
       </c>
       <c r="L710">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M710">
         <v>4</v>
@@ -29561,7 +29561,7 @@
         <v>5.152378411289185</v>
       </c>
       <c r="L711">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M711">
         <v>4</v>
@@ -29593,16 +29593,16 @@
         <v>5.369789629097976</v>
       </c>
       <c r="I712">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J712">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K712">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L712">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M712">
         <v>4</v>
@@ -29628,22 +29628,22 @@
         <v>453.6553001249857</v>
       </c>
       <c r="G713">
-        <v>29.48</v>
+        <v>19.85902048412698</v>
       </c>
       <c r="H713">
         <v>3.944700705656687</v>
       </c>
       <c r="I713">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J713">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K713">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L713">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M713">
         <v>4</v>
@@ -29654,13 +29654,13 @@
         <v>80</v>
       </c>
       <c r="B714">
-        <v>94.13106455174866</v>
+        <v>118</v>
       </c>
       <c r="C714">
         <v>0.404040404040404</v>
       </c>
       <c r="D714">
-        <v>139.3744139557576</v>
+        <v>765.5033816235721</v>
       </c>
       <c r="E714">
         <v>0</v>
@@ -29757,16 +29757,16 @@
         <v>6.605559782781866</v>
       </c>
       <c r="I716">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J716">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K716">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L716">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M716">
         <v>4</v>
@@ -29880,10 +29880,10 @@
         <v>7.535081960145726</v>
       </c>
       <c r="I719">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J719">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K719">
         <v>5.491894278415735</v>
@@ -29965,13 +29965,13 @@
         <v>48.48446785540442</v>
       </c>
       <c r="J721">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K721">
         <v>8.087420170208887</v>
       </c>
       <c r="L721">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M721">
         <v>4</v>
@@ -30067,16 +30067,16 @@
         <v>78.0410365565818</v>
       </c>
       <c r="C724">
-        <v>0.404040404040404</v>
+        <v>0.4702182057607672</v>
       </c>
       <c r="D724">
-        <v>139.3744139557576</v>
+        <v>706.6186173899791</v>
       </c>
       <c r="E724">
         <v>56.29241475672848</v>
       </c>
       <c r="F724">
-        <v>210.944022621558</v>
+        <v>579.804857970178</v>
       </c>
       <c r="G724">
         <v>31.87055326776708</v>
@@ -30126,10 +30126,10 @@
         <v>7.37</v>
       </c>
       <c r="I725">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J725">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K725">
         <v>9.588458751100108</v>
@@ -30158,7 +30158,7 @@
         <v>-16.20818113302853</v>
       </c>
       <c r="F726">
-        <v>210.944022621558</v>
+        <v>513.5123294964413</v>
       </c>
       <c r="G726">
         <v>33.79500857663865</v>
@@ -30234,7 +30234,7 @@
         <v>0.3988087333959444</v>
       </c>
       <c r="D728">
-        <v>139.3744139557576</v>
+        <v>724.1259489879521</v>
       </c>
       <c r="E728">
         <v>-9.69290835607258</v>
@@ -30281,7 +30281,7 @@
         <v>176.9679334389074</v>
       </c>
       <c r="F729">
-        <v>210.944022621558</v>
+        <v>641.1577649477266</v>
       </c>
       <c r="G729">
         <v>31.08741618513023</v>
@@ -30290,16 +30290,16 @@
         <v>5.515215567777425</v>
       </c>
       <c r="I729">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J729">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K729">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L729">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M729">
         <v>4</v>
@@ -30313,16 +30313,16 @@
         <v>93.43011290626738</v>
       </c>
       <c r="C730">
-        <v>0.404040404040404</v>
+        <v>0.4621436668429936</v>
       </c>
       <c r="D730">
-        <v>139.3744139557576</v>
+        <v>634.1673779558014</v>
       </c>
       <c r="E730">
         <v>182.4559232350611</v>
       </c>
       <c r="F730">
-        <v>210.944022621558</v>
+        <v>662.9449214462716</v>
       </c>
       <c r="G730">
         <v>29.79697086969409</v>
@@ -30372,16 +30372,16 @@
         <v>5.325986421603102</v>
       </c>
       <c r="I731">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J731">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K731">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L731">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M731">
         <v>4</v>
@@ -30422,7 +30422,7 @@
         <v>10.92682758762664</v>
       </c>
       <c r="L732">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M732">
         <v>4</v>
@@ -30463,7 +30463,7 @@
         <v>8.408077597326002</v>
       </c>
       <c r="L733">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M733">
         <v>4</v>
@@ -30495,16 +30495,16 @@
         <v>5.29169662857579</v>
       </c>
       <c r="I734">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J734">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K734">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L734">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M734">
         <v>4</v>
@@ -30536,10 +30536,10 @@
         <v>7.37</v>
       </c>
       <c r="I735">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J735">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K735">
         <v>9.247289546207348</v>
@@ -30577,18 +30577,59 @@
         <v>6.607169062718286</v>
       </c>
       <c r="I736">
-        <v>54.18891110517892</v>
+        <v>54.0623861020707</v>
       </c>
       <c r="J736">
-        <v>51.21850746350827</v>
+        <v>51.2097404860387</v>
       </c>
       <c r="K736">
-        <v>7.829152068159485</v>
+        <v>7.808795206019255</v>
       </c>
       <c r="L736">
-        <v>8.642203189343153</v>
+        <v>8.312331640116405</v>
       </c>
       <c r="M736">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="737" spans="1:13">
+      <c r="A737">
+        <v>114.32</v>
+      </c>
+      <c r="B737">
+        <v>86.58</v>
+      </c>
+      <c r="C737">
+        <v>0.432</v>
+      </c>
+      <c r="D737">
+        <v>629.4</v>
+      </c>
+      <c r="E737">
+        <v>788.8</v>
+      </c>
+      <c r="F737">
+        <v>189.6</v>
+      </c>
+      <c r="G737">
+        <v>38</v>
+      </c>
+      <c r="H737">
+        <v>9.5</v>
+      </c>
+      <c r="I737">
+        <v>43</v>
+      </c>
+      <c r="J737">
+        <v>41</v>
+      </c>
+      <c r="K737">
+        <v>4.2</v>
+      </c>
+      <c r="L737">
+        <v>4.4</v>
+      </c>
+      <c r="M737">
         <v>4</v>
       </c>
     </row>
